--- a/DTR_Results_40.xlsx
+++ b/DTR_Results_40.xlsx
@@ -432,11 +432,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1693" workbookViewId="0">
-      <selection activeCell="H1708" sqref="H1708"/>
+    <sheetView tabSelected="1" topLeftCell="A1691" workbookViewId="0">
+      <selection activeCell="F1730" sqref="F1730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -469,7 +472,7 @@
         <v>-3.9325837173337402E-2</v>
       </c>
       <c r="E2">
-        <f>IF(ABS(D2)&gt;0.005,SIGN(D2)*100,"")</f>
+        <f>IF(ABS(D2)&gt;0.01,SIGN(D2)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F2">
@@ -490,13 +493,13 @@
       <c r="D3">
         <v>-6.8074862334958249E-3</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">IF(ABS(D3)&gt;0.005,SIGN(D3)*100,"")</f>
-        <v>-100</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(ABS(D3)&gt;0.01,SIGN(D3)*100,"")</f>
+        <v/>
+      </c>
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="1">IF(ISNUMBER(E3),E3*C3,"")</f>
-        <v>0.75454015588195855</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,13 +581,13 @@
       <c r="D7">
         <v>5.0071552248162673E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F7">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>2.1170921500222799</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,13 +801,13 @@
       <c r="D17">
         <v>9.9047060321275915E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F17">
+        <v/>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>-1.5807968162757919</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,13 +867,13 @@
       <c r="D20">
         <v>9.8107891210121694E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F20">
+        <v/>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>-0.90711831421562228</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,13 +977,13 @@
       <c r="D25">
         <v>7.3883172820619599E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F25">
+        <v/>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>-2.2894955661940819</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,13 +1043,13 @@
       <c r="D28">
         <v>5.5863136293734092E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F28">
+        <v/>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>-1.0564081531244669</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,13 +1065,13 @@
       <c r="D29">
         <v>9.5824816902731185E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F29">
+        <v/>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>-2.4198586846371608</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,13 +1109,13 @@
       <c r="D31">
         <v>-8.7533161915926746E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F31">
+        <v/>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>4.414997620308343</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,13 +1439,13 @@
       <c r="D46">
         <v>-9.2899763941699902E-3</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F46">
+        <v/>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>-2.1350608349752869</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,13 +1615,13 @@
       <c r="D54">
         <v>9.7154726674607544E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F54">
+        <v/>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>-2.3205404167966912</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,13 +1637,13 @@
       <c r="D55">
         <v>5.5863136293734092E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F55">
+        <v/>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>-1.7127184212948552</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,13 +1791,13 @@
       <c r="D62">
         <v>-5.3030311065197519E-3</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F62">
+        <v/>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>0.1104083641482736</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,13 +1813,13 @@
       <c r="D63">
         <v>-9.2948028557235142E-3</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F63">
+        <v/>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>3.646420292422127</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,13 +1835,13 @@
       <c r="D64">
         <v>-8.7533161915926746E-3</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F64">
+        <v/>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>0.80275247769552305</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1902,7 @@
         <v>1.5426992145346961E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">IF(ABS(D67)&gt;0.005,SIGN(D67)*100,"")</f>
+        <f t="shared" ref="E67:E130" si="2">IF(ABS(D67)&gt;0.01,SIGN(D67)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F67">
@@ -1986,13 +1989,13 @@
       <c r="D71">
         <v>-9.8198560131246317E-3</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="str">
         <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="F71">
+        <v/>
+      </c>
+      <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>-1.139624321239086</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,13 +2341,13 @@
       <c r="D87">
         <v>-9.8198560131246317E-3</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="str">
         <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="F87">
+        <v/>
+      </c>
+      <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>-1.2973426162918691</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,13 +2473,13 @@
       <c r="D93">
         <v>-9.2948028557235142E-3</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="str">
         <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="F93">
+        <v/>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>0.24972027972027913</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,13 +2517,13 @@
       <c r="D95">
         <v>8.4793861663365697E-3</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="str">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F95">
+        <v/>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>3.5165722123256948</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,13 +2979,13 @@
       <c r="D116">
         <v>-9.4009924000967044E-3</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="str">
         <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="F116">
+        <v/>
+      </c>
+      <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>0.79923076923076297</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,13 +3023,13 @@
       <c r="D118">
         <v>8.8083965207450439E-3</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="str">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F118">
+        <v/>
+      </c>
+      <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>-0.93271477663230229</v>
+        <v/>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,7 +3310,7 @@
         <v>-1.4438136091901681E-3</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="4">IF(ABS(D131)&gt;0.005,SIGN(D131)*100,"")</f>
+        <f t="shared" ref="E131:E194" si="4">IF(ABS(D131)&gt;0.01,SIGN(D131)*100,"")</f>
         <v/>
       </c>
       <c r="F131" t="str">
@@ -3570,13 +3573,13 @@
       <c r="D143">
         <v>-7.2139752544680266E-3</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="str">
         <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F143">
+        <v/>
+      </c>
+      <c r="F143" t="str">
         <f t="shared" si="5"/>
-        <v>3.9171623816760821</v>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,13 +3859,13 @@
       <c r="D156">
         <v>8.5832603290540831E-3</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="str">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F156">
+        <v/>
+      </c>
+      <c r="F156" t="str">
         <f t="shared" si="5"/>
-        <v>2.4863126843657839</v>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,13 +4035,13 @@
       <c r="D164">
         <v>8.6288836175190363E-3</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="str">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F164">
+        <v/>
+      </c>
+      <c r="F164" t="str">
         <f t="shared" si="5"/>
-        <v>-0.74785765451588482</v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,13 +4145,13 @@
       <c r="D169">
         <v>9.7874918606362347E-3</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="str">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F169">
+        <v/>
+      </c>
+      <c r="F169" t="str">
         <f t="shared" si="5"/>
-        <v>-2.876157451310744</v>
+        <v/>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,13 +4255,13 @@
       <c r="D174">
         <v>-8.3513846153846147E-3</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="str">
         <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F174">
+        <v/>
+      </c>
+      <c r="F174" t="str">
         <f t="shared" si="5"/>
-        <v>-1.2221734031846181</v>
+        <v/>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,13 +4409,13 @@
       <c r="D181">
         <v>8.8819426871250447E-3</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="str">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F181">
+        <v/>
+      </c>
+      <c r="F181" t="str">
         <f t="shared" si="5"/>
-        <v>-0.6557377049180334</v>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,7 +4718,7 @@
         <v>1.222173403184618E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="6">IF(ABS(D195)&gt;0.005,SIGN(D195)*100,"")</f>
+        <f t="shared" ref="E195:E258" si="6">IF(ABS(D195)&gt;0.01,SIGN(D195)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F195">
@@ -4758,13 +4761,13 @@
       <c r="D197">
         <v>-9.1543180002574814E-3</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F197">
+        <v/>
+      </c>
+      <c r="F197" t="str">
         <f t="shared" si="7"/>
-        <v>0.97794640155431534</v>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4780,13 +4783,13 @@
       <c r="D198">
         <v>8.4217176183375118E-3</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F198">
+        <v/>
+      </c>
+      <c r="F198" t="str">
         <f t="shared" si="7"/>
-        <v>5.283909545508279</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,13 +4915,13 @@
       <c r="D204">
         <v>-7.4785765451588484E-3</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F204">
+        <v/>
+      </c>
+      <c r="F204" t="str">
         <f t="shared" si="7"/>
-        <v>2.6746307405021588</v>
+        <v/>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,13 +4981,13 @@
       <c r="D207">
         <v>-6.5573770491803339E-3</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F207">
+        <v/>
+      </c>
+      <c r="F207" t="str">
         <f t="shared" si="7"/>
-        <v>-3.1947271383551081</v>
+        <v/>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5132,13 +5135,13 @@
       <c r="D214">
         <v>8.0265352244131578E-3</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F214">
+        <v/>
+      </c>
+      <c r="F214" t="str">
         <f t="shared" si="7"/>
-        <v>-0.6742021259861366</v>
+        <v/>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5154,13 +5157,13 @@
       <c r="D215">
         <v>7.920198625945481E-3</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F215">
+        <v/>
+      </c>
+      <c r="F215" t="str">
         <f t="shared" si="7"/>
-        <v>3.3484714973225831</v>
+        <v/>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5220,13 +5223,13 @@
       <c r="D218">
         <v>9.3678688524590301E-3</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F218">
+        <v/>
+      </c>
+      <c r="F218" t="str">
         <f t="shared" si="7"/>
-        <v>6.236594621349612</v>
+        <v/>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,13 +5245,13 @@
       <c r="D219">
         <v>9.3678688524590301E-3</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F219">
+        <v/>
+      </c>
+      <c r="F219" t="str">
         <f t="shared" si="7"/>
-        <v>-1.214598993587203</v>
+        <v/>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,13 +5267,13 @@
       <c r="D220">
         <v>7.9738281401339813E-3</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F220">
+        <v/>
+      </c>
+      <c r="F220" t="str">
         <f t="shared" si="7"/>
-        <v>-6.1065250906987885</v>
+        <v/>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,13 +5465,13 @@
       <c r="D229">
         <v>-8.6801230347435115E-3</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F229">
+        <v/>
+      </c>
+      <c r="F229" t="str">
         <f t="shared" si="7"/>
-        <v>0.91943933815079437</v>
+        <v/>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5528,13 +5531,13 @@
       <c r="D232">
         <v>-8.534189923034308E-3</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F232">
+        <v/>
+      </c>
+      <c r="F232" t="str">
         <f t="shared" si="7"/>
-        <v>0.71240414739018676</v>
+        <v/>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5550,13 +5553,13 @@
       <c r="D233">
         <v>-8.9640420390353776E-3</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F233">
+        <v/>
+      </c>
+      <c r="F233" t="str">
         <f t="shared" si="7"/>
-        <v>1.345255726031904</v>
+        <v/>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5572,13 +5575,13 @@
       <c r="D234">
         <v>-8.9640420390353776E-3</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F234">
+        <v/>
+      </c>
+      <c r="F234" t="str">
         <f t="shared" si="7"/>
-        <v>0.81823614048105486</v>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5594,13 +5597,13 @@
       <c r="D235">
         <v>-8.1823614048105488E-3</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F235">
+        <v/>
+      </c>
+      <c r="F235" t="str">
         <f t="shared" si="7"/>
-        <v>-2.8872601889808132</v>
+        <v/>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5616,13 +5619,13 @@
       <c r="D236">
         <v>7.9738281401339813E-3</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F236">
+        <v/>
+      </c>
+      <c r="F236" t="str">
         <f t="shared" si="7"/>
-        <v>0.75724741841801924</v>
+        <v/>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5638,13 +5641,13 @@
       <c r="D237">
         <v>-6.7420212598613659E-3</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F237">
+        <v/>
+      </c>
+      <c r="F237" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5660,13 +5663,13 @@
       <c r="D238">
         <v>-8.1823614048105488E-3</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F238">
+        <v/>
+      </c>
+      <c r="F238" t="str">
         <f t="shared" si="7"/>
-        <v>-2.077842984587615</v>
+        <v/>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,13 +5773,13 @@
       <c r="D243">
         <v>-8.3882568113251045E-3</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="str">
         <f t="shared" si="6"/>
-        <v>-100</v>
-      </c>
-      <c r="F243">
+        <v/>
+      </c>
+      <c r="F243" t="str">
         <f t="shared" si="7"/>
-        <v>-0.64715282953457121</v>
+        <v/>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5902,13 +5905,13 @@
       <c r="D249">
         <v>7.572474184180192E-3</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F249">
+        <v/>
+      </c>
+      <c r="F249" t="str">
         <f t="shared" si="7"/>
-        <v>0.34963280600825047</v>
+        <v/>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,13 +5993,13 @@
       <c r="D253">
         <v>7.572474184180192E-3</v>
       </c>
-      <c r="E253">
+      <c r="E253" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="F253">
+        <v/>
+      </c>
+      <c r="F253" t="str">
         <f t="shared" si="7"/>
-        <v>1.398339220057504</v>
+        <v/>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6123,7 +6126,7 @@
         <v>-3.5576673233603077E-2</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="8">IF(ABS(D259)&gt;0.005,SIGN(D259)*100,"")</f>
+        <f t="shared" ref="E259:E322" si="8">IF(ABS(D259)&gt;0.01,SIGN(D259)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F259">
@@ -6188,13 +6191,13 @@
       <c r="D262">
         <v>-8.1823614048105488E-3</v>
       </c>
-      <c r="E262">
+      <c r="E262" t="str">
         <f t="shared" si="8"/>
-        <v>-100</v>
-      </c>
-      <c r="F262">
+        <v/>
+      </c>
+      <c r="F262" t="str">
         <f t="shared" si="9"/>
-        <v>2.2222292529801972</v>
+        <v/>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6628,13 +6631,13 @@
       <c r="D282">
         <v>9.7792097226214909E-3</v>
       </c>
-      <c r="E282">
+      <c r="E282" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F282">
+        <v/>
+      </c>
+      <c r="F282" t="str">
         <f t="shared" si="9"/>
-        <v>7.7785863874345678</v>
+        <v/>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6760,13 +6763,13 @@
       <c r="D288">
         <v>8.3699423850030989E-3</v>
       </c>
-      <c r="E288">
+      <c r="E288" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F288">
+        <v/>
+      </c>
+      <c r="F288" t="str">
         <f t="shared" si="9"/>
-        <v>0.50798269404557972</v>
+        <v/>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6826,13 +6829,13 @@
       <c r="D291">
         <v>9.7792097226214909E-3</v>
       </c>
-      <c r="E291">
+      <c r="E291" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F291">
+        <v/>
+      </c>
+      <c r="F291" t="str">
         <f t="shared" si="9"/>
-        <v>-1.5418504466740761</v>
+        <v/>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7002,13 +7005,13 @@
       <c r="D299">
         <v>5.6821978306360512E-3</v>
       </c>
-      <c r="E299">
+      <c r="E299" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F299">
+        <v/>
+      </c>
+      <c r="F299" t="str">
         <f t="shared" si="9"/>
-        <v>-1.0546136976390901</v>
+        <v/>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -7046,13 +7049,13 @@
       <c r="D301">
         <v>7.6332043588080989E-3</v>
       </c>
-      <c r="E301">
+      <c r="E301" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F301">
+        <v/>
+      </c>
+      <c r="F301" t="str">
         <f t="shared" si="9"/>
-        <v>1.4772653753432401</v>
+        <v/>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7112,13 +7115,13 @@
       <c r="D304">
         <v>7.6332043588080989E-3</v>
       </c>
-      <c r="E304">
+      <c r="E304" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F304">
+        <v/>
+      </c>
+      <c r="F304" t="str">
         <f t="shared" si="9"/>
-        <v>-2.0183628583421198</v>
+        <v/>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7354,13 +7357,13 @@
       <c r="D315">
         <v>7.6332043588080989E-3</v>
       </c>
-      <c r="E315">
+      <c r="E315" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F315">
+        <v/>
+      </c>
+      <c r="F315" t="str">
         <f t="shared" si="9"/>
-        <v>0.86362720403021087</v>
+        <v/>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7486,13 +7489,13 @@
       <c r="D321">
         <v>7.6332043588080989E-3</v>
       </c>
-      <c r="E321">
+      <c r="E321" t="str">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="F321">
+        <v/>
+      </c>
+      <c r="F321" t="str">
         <f t="shared" si="9"/>
-        <v>0.36556326147381046</v>
+        <v/>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7508,13 +7511,13 @@
       <c r="D322">
         <v>-5.571238390409872E-3</v>
       </c>
-      <c r="E322">
+      <c r="E322" t="str">
         <f t="shared" si="8"/>
-        <v>-100</v>
-      </c>
-      <c r="F322">
+        <v/>
+      </c>
+      <c r="F322" t="str">
         <f t="shared" si="9"/>
-        <v>-1.490072749001806</v>
+        <v/>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7531,7 +7534,7 @@
         <v>4.5889173149842068E-3</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" ref="E323:E386" si="10">IF(ABS(D323)&gt;0.005,SIGN(D323)*100,"")</f>
+        <f t="shared" ref="E323:E386" si="10">IF(ABS(D323)&gt;0.01,SIGN(D323)*100,"")</f>
         <v/>
       </c>
       <c r="F323" t="str">
@@ -7948,13 +7951,13 @@
       <c r="D342">
         <v>-8.2589356948174989E-3</v>
       </c>
-      <c r="E342">
+      <c r="E342" t="str">
         <f t="shared" si="10"/>
-        <v>-100</v>
-      </c>
-      <c r="F342">
+        <v/>
+      </c>
+      <c r="F342" t="str">
         <f t="shared" si="11"/>
-        <v>2.56495635376998</v>
+        <v/>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7970,13 +7973,13 @@
       <c r="D343">
         <v>8.6362720403021093E-3</v>
       </c>
-      <c r="E343">
+      <c r="E343" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F343">
+        <v/>
+      </c>
+      <c r="F343" t="str">
         <f t="shared" si="11"/>
-        <v>-1.3333263133912741</v>
+        <v/>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8124,13 +8127,13 @@
       <c r="D350">
         <v>-8.2589356948174989E-3</v>
       </c>
-      <c r="E350">
+      <c r="E350" t="str">
         <f t="shared" si="10"/>
-        <v>-100</v>
-      </c>
-      <c r="F350">
+        <v/>
+      </c>
+      <c r="F350" t="str">
         <f t="shared" si="11"/>
-        <v>-0.89599994265598448</v>
+        <v/>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8256,13 +8259,13 @@
       <c r="D356">
         <v>5.5435164097915896E-3</v>
       </c>
-      <c r="E356">
+      <c r="E356" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F356">
+        <v/>
+      </c>
+      <c r="F356" t="str">
         <f t="shared" si="11"/>
-        <v>-4.502296814560685</v>
+        <v/>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8322,13 +8325,13 @@
       <c r="D359">
         <v>-8.26291881935169E-3</v>
       </c>
-      <c r="E359">
+      <c r="E359" t="str">
         <f t="shared" si="10"/>
-        <v>-100</v>
-      </c>
-      <c r="F359">
+        <v/>
+      </c>
+      <c r="F359" t="str">
         <f t="shared" si="11"/>
-        <v>-1.9878295599762279</v>
+        <v/>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -8410,13 +8413,13 @@
       <c r="D363">
         <v>8.6590757755563956E-3</v>
       </c>
-      <c r="E363">
+      <c r="E363" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F363">
+        <v/>
+      </c>
+      <c r="F363" t="str">
         <f t="shared" si="11"/>
-        <v>2.3363280469007113</v>
+        <v/>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -8454,13 +8457,13 @@
       <c r="D365">
         <v>-8.26291881935169E-3</v>
       </c>
-      <c r="E365">
+      <c r="E365" t="str">
         <f t="shared" si="10"/>
-        <v>-100</v>
-      </c>
-      <c r="F365">
+        <v/>
+      </c>
+      <c r="F365" t="str">
         <f t="shared" si="11"/>
-        <v>-0.49259770114943052</v>
+        <v/>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,13 +8699,13 @@
       <c r="D376">
         <v>5.2478648267532436E-3</v>
       </c>
-      <c r="E376">
+      <c r="E376" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F376">
+        <v/>
+      </c>
+      <c r="F376" t="str">
         <f t="shared" si="11"/>
-        <v>-1.9608072686962381</v>
+        <v/>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -8718,13 +8721,13 @@
       <c r="D377">
         <v>5.2478648267532436E-3</v>
       </c>
-      <c r="E377">
+      <c r="E377" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F377">
+        <v/>
+      </c>
+      <c r="F377" t="str">
         <f t="shared" si="11"/>
-        <v>0.20588238927337671</v>
+        <v/>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8850,13 +8853,13 @@
       <c r="D383">
         <v>8.7173733128347551E-3</v>
       </c>
-      <c r="E383">
+      <c r="E383" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F383">
+        <v/>
+      </c>
+      <c r="F383" t="str">
         <f t="shared" si="11"/>
-        <v>1.1204313725490329</v>
+        <v/>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -8872,13 +8875,13 @@
       <c r="D384">
         <v>8.7173733128347551E-3</v>
       </c>
-      <c r="E384">
+      <c r="E384" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F384">
+        <v/>
+      </c>
+      <c r="F384" t="str">
         <f t="shared" si="11"/>
-        <v>-1.2188146070051979</v>
+        <v/>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8916,13 +8919,13 @@
       <c r="D386">
         <v>8.474747199109664E-3</v>
       </c>
-      <c r="E386">
+      <c r="E386" t="str">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="F386">
+        <v/>
+      </c>
+      <c r="F386" t="str">
         <f t="shared" si="11"/>
-        <v>-1.7837124740085091</v>
+        <v/>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8939,7 +8942,7 @@
         <v>-1.783712474008509E-2</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="12">IF(ABS(D387)&gt;0.005,SIGN(D387)*100,"")</f>
+        <f t="shared" ref="E387:E450" si="12">IF(ABS(D387)&gt;0.01,SIGN(D387)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F387">
@@ -8960,13 +8963,13 @@
       <c r="D388">
         <v>-8.266901943885881E-3</v>
       </c>
-      <c r="E388">
+      <c r="E388" t="str">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="F388">
+        <v/>
+      </c>
+      <c r="F388" t="str">
         <f t="shared" si="13"/>
-        <v>0.45246611453236568</v>
+        <v/>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -9510,13 +9513,13 @@
       <c r="D413">
         <v>6.1692649372257482E-3</v>
       </c>
-      <c r="E413">
+      <c r="E413" t="str">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="F413">
+        <v/>
+      </c>
+      <c r="F413" t="str">
         <f t="shared" si="13"/>
-        <v>0.63584569732937035</v>
+        <v/>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -9576,13 +9579,13 @@
       <c r="D416">
         <v>6.1692649372257482E-3</v>
       </c>
-      <c r="E416">
+      <c r="E416" t="str">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="F416">
+        <v/>
+      </c>
+      <c r="F416" t="str">
         <f t="shared" si="13"/>
-        <v>0.52968653045534209</v>
+        <v/>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -9994,13 +9997,13 @@
       <c r="D435">
         <v>-7.1519568491339464E-3</v>
       </c>
-      <c r="E435">
+      <c r="E435" t="str">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="F435">
+        <v/>
+      </c>
+      <c r="F435" t="str">
         <f t="shared" si="13"/>
-        <v>-11.371437524394031</v>
+        <v/>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -10236,13 +10239,13 @@
       <c r="D446">
         <v>-7.44203452775416E-3</v>
       </c>
-      <c r="E446">
+      <c r="E446" t="str">
         <f t="shared" si="12"/>
-        <v>-100</v>
-      </c>
-      <c r="F446">
+        <v/>
+      </c>
+      <c r="F446" t="str">
         <f t="shared" si="13"/>
-        <v>4.3227784424220452</v>
+        <v/>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -10346,13 +10349,13 @@
       <c r="D451">
         <v>9.0727664155005952E-3</v>
       </c>
-      <c r="E451">
-        <f t="shared" ref="E451:E514" si="14">IF(ABS(D451)&gt;0.005,SIGN(D451)*100,"")</f>
-        <v>100</v>
-      </c>
-      <c r="F451">
+      <c r="E451" t="str">
+        <f t="shared" ref="E451:E514" si="14">IF(ABS(D451)&gt;0.01,SIGN(D451)*100,"")</f>
+        <v/>
+      </c>
+      <c r="F451" t="str">
         <f t="shared" ref="F451:F514" si="15">IF(ISNUMBER(E451),E451*C451,"")</f>
-        <v>-0.24465746990909401</v>
+        <v/>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -10434,13 +10437,13 @@
       <c r="D455">
         <v>-7.1519568491339464E-3</v>
       </c>
-      <c r="E455">
+      <c r="E455" t="str">
         <f t="shared" si="14"/>
-        <v>-100</v>
-      </c>
-      <c r="F455">
+        <v/>
+      </c>
+      <c r="F455" t="str">
         <f t="shared" si="15"/>
-        <v>2.9173756299945901</v>
+        <v/>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -10786,13 +10789,13 @@
       <c r="D471">
         <v>8.0567448919356913E-3</v>
       </c>
-      <c r="E471">
+      <c r="E471" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F471">
+        <v/>
+      </c>
+      <c r="F471" t="str">
         <f t="shared" si="15"/>
-        <v>12.620320855614969</v>
+        <v/>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -10874,13 +10877,13 @@
       <c r="D475">
         <v>9.1624332619938513E-3</v>
       </c>
-      <c r="E475">
+      <c r="E475" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F475">
+        <v/>
+      </c>
+      <c r="F475" t="str">
         <f t="shared" si="15"/>
-        <v>-1.191658391261182</v>
+        <v/>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -10896,13 +10899,13 @@
       <c r="D476">
         <v>8.0567448919356913E-3</v>
       </c>
-      <c r="E476">
+      <c r="E476" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F476">
+        <v/>
+      </c>
+      <c r="F476" t="str">
         <f t="shared" si="15"/>
-        <v>2.3833567839196048</v>
+        <v/>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -10940,13 +10943,13 @@
       <c r="D478">
         <v>9.1624332619938513E-3</v>
       </c>
-      <c r="E478">
+      <c r="E478" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F478">
+        <v/>
+      </c>
+      <c r="F478" t="str">
         <f t="shared" si="15"/>
-        <v>0.5494477317554245</v>
+        <v/>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -11006,13 +11009,13 @@
       <c r="D481">
         <v>9.0727664155005952E-3</v>
       </c>
-      <c r="E481">
+      <c r="E481" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F481">
+        <v/>
+      </c>
+      <c r="F481" t="str">
         <f t="shared" si="15"/>
-        <v>0.63746947685867483</v>
+        <v/>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -11028,13 +11031,13 @@
       <c r="D482">
         <v>-6.8813102119461393E-3</v>
       </c>
-      <c r="E482">
+      <c r="E482" t="str">
         <f t="shared" si="14"/>
-        <v>-100</v>
-      </c>
-      <c r="F482">
+        <v/>
+      </c>
+      <c r="F482" t="str">
         <f t="shared" si="15"/>
-        <v>-2.6989809226389281</v>
+        <v/>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -11226,13 +11229,13 @@
       <c r="D491">
         <v>5.4944773175542444E-3</v>
       </c>
-      <c r="E491">
+      <c r="E491" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F491">
+        <v/>
+      </c>
+      <c r="F491" t="str">
         <f t="shared" si="15"/>
-        <v>1.4481783904516861</v>
+        <v/>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -11248,13 +11251,13 @@
       <c r="D492">
         <v>8.0567448919356913E-3</v>
       </c>
-      <c r="E492">
+      <c r="E492" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F492">
+        <v/>
+      </c>
+      <c r="F492" t="str">
         <f t="shared" si="15"/>
-        <v>3.5937889509747598</v>
+        <v/>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -11424,13 +11427,13 @@
       <c r="D500">
         <v>5.4944773175542444E-3</v>
       </c>
-      <c r="E500">
+      <c r="E500" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F500">
+        <v/>
+      </c>
+      <c r="F500" t="str">
         <f t="shared" si="15"/>
-        <v>1.2884335443037969</v>
+        <v/>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -11446,13 +11449,13 @@
       <c r="D501">
         <v>6.3746947685867483E-3</v>
       </c>
-      <c r="E501">
+      <c r="E501" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F501">
+        <v/>
+      </c>
+      <c r="F501" t="str">
         <f t="shared" si="15"/>
-        <v>-0.29012272103620462</v>
+        <v/>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -11490,13 +11493,13 @@
       <c r="D503">
         <v>6.3746947685867483E-3</v>
       </c>
-      <c r="E503">
+      <c r="E503" t="str">
         <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="F503">
+        <v/>
+      </c>
+      <c r="F503" t="str">
         <f t="shared" si="15"/>
-        <v>-1.6448054757767152</v>
+        <v/>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -11755,7 +11758,7 @@
         <v>2.8360678727577141E-2</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="16">IF(ABS(D515)&gt;0.005,SIGN(D515)*100,"")</f>
+        <f t="shared" ref="E515:E578" si="16">IF(ABS(D515)&gt;0.01,SIGN(D515)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F515">
@@ -11776,13 +11779,13 @@
       <c r="D516">
         <v>6.3746947685867483E-3</v>
       </c>
-      <c r="E516">
+      <c r="E516" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F516">
+        <v/>
+      </c>
+      <c r="F516" t="str">
         <f t="shared" si="17"/>
-        <v>-9.231017770598092E-2</v>
+        <v/>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -11886,13 +11889,13 @@
       <c r="D521">
         <v>6.9382723128530834E-3</v>
       </c>
-      <c r="E521">
+      <c r="E521" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F521">
+        <v/>
+      </c>
+      <c r="F521" t="str">
         <f t="shared" si="17"/>
-        <v>-0.44444677322931025</v>
+        <v/>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -11908,13 +11911,13 @@
       <c r="D522">
         <v>6.9382723128530834E-3</v>
       </c>
-      <c r="E522">
+      <c r="E522" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F522">
+        <v/>
+      </c>
+      <c r="F522" t="str">
         <f t="shared" si="17"/>
-        <v>-1.151315789473689</v>
+        <v/>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -12040,13 +12043,13 @@
       <c r="D528">
         <v>7.7650568365674579E-3</v>
       </c>
-      <c r="E528">
+      <c r="E528" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F528">
+        <v/>
+      </c>
+      <c r="F528" t="str">
         <f t="shared" si="17"/>
-        <v>-0.1650943357289037</v>
+        <v/>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -12238,13 +12241,13 @@
       <c r="D537">
         <v>9.7020092537763621E-3</v>
       </c>
-      <c r="E537">
+      <c r="E537" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F537">
+        <v/>
+      </c>
+      <c r="F537" t="str">
         <f t="shared" si="17"/>
-        <v>2.8961832975013682</v>
+        <v/>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -12260,13 +12263,13 @@
       <c r="D538">
         <v>9.7020092537763621E-3</v>
       </c>
-      <c r="E538">
+      <c r="E538" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F538">
+        <v/>
+      </c>
+      <c r="F538" t="str">
         <f t="shared" si="17"/>
-        <v>-3.3457249070631918</v>
+        <v/>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -12414,13 +12417,13 @@
       <c r="D545">
         <v>5.6111005421371181E-3</v>
       </c>
-      <c r="E545">
+      <c r="E545" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F545">
+        <v/>
+      </c>
+      <c r="F545" t="str">
         <f t="shared" si="17"/>
-        <v>0.16596679579713219</v>
+        <v/>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -12458,13 +12461,13 @@
       <c r="D547">
         <v>5.2471970518420639E-3</v>
       </c>
-      <c r="E547">
+      <c r="E547" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F547">
+        <v/>
+      </c>
+      <c r="F547" t="str">
         <f t="shared" si="17"/>
-        <v>-0.79671153846153731</v>
+        <v/>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -12546,13 +12549,13 @@
       <c r="D551">
         <v>9.7020092537763621E-3</v>
       </c>
-      <c r="E551">
+      <c r="E551" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F551">
+        <v/>
+      </c>
+      <c r="F551" t="str">
         <f t="shared" si="17"/>
-        <v>-1.4216685312053861</v>
+        <v/>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -12634,13 +12637,13 @@
       <c r="D555">
         <v>5.6111005421371181E-3</v>
       </c>
-      <c r="E555">
+      <c r="E555" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F555">
+        <v/>
+      </c>
+      <c r="F555" t="str">
         <f t="shared" si="17"/>
-        <v>1.0526404124351061</v>
+        <v/>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -13140,13 +13143,13 @@
       <c r="D578">
         <v>8.6790884545948823E-3</v>
       </c>
-      <c r="E578">
+      <c r="E578" t="str">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="F578">
+        <v/>
+      </c>
+      <c r="F578" t="str">
         <f t="shared" si="17"/>
-        <v>3.4417828298408981</v>
+        <v/>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,7 +13166,7 @@
         <v>1.26745253573906E-3</v>
       </c>
       <c r="E579" t="str">
-        <f t="shared" ref="E579:E642" si="18">IF(ABS(D579)&gt;0.005,SIGN(D579)*100,"")</f>
+        <f t="shared" ref="E579:E642" si="18">IF(ABS(D579)&gt;0.01,SIGN(D579)*100,"")</f>
         <v/>
       </c>
       <c r="F579" t="str">
@@ -13184,13 +13187,13 @@
       <c r="D580">
         <v>8.6790884545948823E-3</v>
       </c>
-      <c r="E580">
+      <c r="E580" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F580">
+        <v/>
+      </c>
+      <c r="F580" t="str">
         <f t="shared" si="19"/>
-        <v>-0.34347158934024513</v>
+        <v/>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -13294,13 +13297,13 @@
       <c r="D585">
         <v>8.8219123505977083E-3</v>
       </c>
-      <c r="E585">
+      <c r="E585" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F585">
+        <v/>
+      </c>
+      <c r="F585" t="str">
         <f t="shared" si="19"/>
-        <v>1.764383869825829</v>
+        <v/>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -13338,13 +13341,13 @@
       <c r="D587">
         <v>-6.9350230426793204E-3</v>
       </c>
-      <c r="E587">
+      <c r="E587" t="str">
         <f t="shared" si="18"/>
-        <v>-100</v>
-      </c>
-      <c r="F587">
+        <v/>
+      </c>
+      <c r="F587" t="str">
         <f t="shared" si="19"/>
-        <v>1.6653342288117792</v>
+        <v/>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -13536,13 +13539,13 @@
       <c r="D596">
         <v>6.0091778202676881E-3</v>
       </c>
-      <c r="E596">
+      <c r="E596" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F596">
+        <v/>
+      </c>
+      <c r="F596" t="str">
         <f t="shared" si="19"/>
-        <v>6.5291224862888599</v>
+        <v/>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -13756,13 +13759,13 @@
       <c r="D606">
         <v>-6.9350230426793204E-3</v>
       </c>
-      <c r="E606">
+      <c r="E606" t="str">
         <f t="shared" si="18"/>
-        <v>-100</v>
-      </c>
-      <c r="F606">
+        <v/>
+      </c>
+      <c r="F606" t="str">
         <f t="shared" si="19"/>
-        <v>-4.5644539871732219E-2</v>
+        <v/>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -13844,13 +13847,13 @@
       <c r="D610">
         <v>6.0091778202676881E-3</v>
       </c>
-      <c r="E610">
+      <c r="E610" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F610">
+        <v/>
+      </c>
+      <c r="F610" t="str">
         <f t="shared" si="19"/>
-        <v>0.69946139660849593</v>
+        <v/>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -13976,13 +13979,13 @@
       <c r="D616">
         <v>6.695879302192044E-3</v>
       </c>
-      <c r="E616">
+      <c r="E616" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F616">
+        <v/>
+      </c>
+      <c r="F616" t="str">
         <f t="shared" si="19"/>
-        <v>-1.386365972107533</v>
+        <v/>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -13998,13 +14001,13 @@
       <c r="D617">
         <v>6.695879302192044E-3</v>
       </c>
-      <c r="E617">
+      <c r="E617" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F617">
+        <v/>
+      </c>
+      <c r="F617" t="str">
         <f t="shared" si="19"/>
-        <v>0.16132750596871101</v>
+        <v/>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -14130,13 +14133,13 @@
       <c r="D623">
         <v>-6.7742730580894143E-3</v>
       </c>
-      <c r="E623">
+      <c r="E623" t="str">
         <f t="shared" si="18"/>
-        <v>-100</v>
-      </c>
-      <c r="F623">
+        <v/>
+      </c>
+      <c r="F623" t="str">
         <f t="shared" si="19"/>
-        <v>0.2809075012376267</v>
+        <v/>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -14152,13 +14155,13 @@
       <c r="D624">
         <v>-6.7742730580894143E-3</v>
       </c>
-      <c r="E624">
+      <c r="E624" t="str">
         <f t="shared" si="18"/>
-        <v>-100</v>
-      </c>
-      <c r="F624">
+        <v/>
+      </c>
+      <c r="F624" t="str">
         <f t="shared" si="19"/>
-        <v>0.65005201841933757</v>
+        <v/>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -14262,13 +14265,13 @@
       <c r="D629">
         <v>6.9946139660849596E-3</v>
       </c>
-      <c r="E629">
+      <c r="E629" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F629">
+        <v/>
+      </c>
+      <c r="F629" t="str">
         <f t="shared" si="19"/>
-        <v>1.5904550123601751</v>
+        <v/>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -14416,13 +14419,13 @@
       <c r="D636">
         <v>6.1161874390175423E-3</v>
       </c>
-      <c r="E636">
+      <c r="E636" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="F636">
+        <v/>
+      </c>
+      <c r="F636" t="str">
         <f t="shared" si="19"/>
-        <v>1.4589645390070949</v>
+        <v/>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -14460,13 +14463,13 @@
       <c r="D638">
         <v>-5.9496797700154726E-3</v>
       </c>
-      <c r="E638">
+      <c r="E638" t="str">
         <f t="shared" si="18"/>
-        <v>-100</v>
-      </c>
-      <c r="F638">
+        <v/>
+      </c>
+      <c r="F638" t="str">
         <f t="shared" si="19"/>
-        <v>0.15656164383561219</v>
+        <v/>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -14571,7 +14574,7 @@
         <v>1.6324925993427209E-2</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="20">IF(ABS(D643)&gt;0.005,SIGN(D643)*100,"")</f>
+        <f t="shared" ref="E643:E706" si="20">IF(ABS(D643)&gt;0.01,SIGN(D643)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F643">
@@ -14746,13 +14749,13 @@
       <c r="D651">
         <v>8.6393300803745028E-3</v>
       </c>
-      <c r="E651">
+      <c r="E651" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F651">
+        <v/>
+      </c>
+      <c r="F651" t="str">
         <f t="shared" si="21"/>
-        <v>2.1471675075410932</v>
+        <v/>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -14900,13 +14903,13 @@
       <c r="D658">
         <v>-6.5005201841933759E-3</v>
       </c>
-      <c r="E658">
+      <c r="E658" t="str">
         <f t="shared" si="20"/>
-        <v>-100</v>
-      </c>
-      <c r="F658">
+        <v/>
+      </c>
+      <c r="F658" t="str">
         <f t="shared" si="21"/>
-        <v>1.0239528197854459</v>
+        <v/>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -14922,13 +14925,13 @@
       <c r="D659">
         <v>-5.4525190839694012E-3</v>
       </c>
-      <c r="E659">
+      <c r="E659" t="str">
         <f t="shared" si="20"/>
-        <v>-100</v>
-      </c>
-      <c r="F659">
+        <v/>
+      </c>
+      <c r="F659" t="str">
         <f t="shared" si="21"/>
-        <v>5.0361190680367631</v>
+        <v/>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -15274,13 +15277,13 @@
       <c r="D675">
         <v>8.3856916773988651E-3</v>
       </c>
-      <c r="E675">
+      <c r="E675" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F675">
+        <v/>
+      </c>
+      <c r="F675" t="str">
         <f t="shared" si="21"/>
-        <v>4.4005528205319759</v>
+        <v/>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -15296,13 +15299,13 @@
       <c r="D676">
         <v>8.3856916773988651E-3</v>
       </c>
-      <c r="E676">
+      <c r="E676" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F676">
+        <v/>
+      </c>
+      <c r="F676" t="str">
         <f t="shared" si="21"/>
-        <v>0.14935115247350972</v>
+        <v/>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -15362,13 +15365,13 @@
       <c r="D679">
         <v>8.3856916773988651E-3</v>
       </c>
-      <c r="E679">
+      <c r="E679" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F679">
+        <v/>
+      </c>
+      <c r="F679" t="str">
         <f t="shared" si="21"/>
-        <v>8.3404510709291363E-2</v>
+        <v/>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -15538,13 +15541,13 @@
       <c r="D687">
         <v>8.2850544016606284E-3</v>
       </c>
-      <c r="E687">
+      <c r="E687" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F687">
+        <v/>
+      </c>
+      <c r="F687" t="str">
         <f t="shared" si="21"/>
-        <v>-0.75026795284030312</v>
+        <v/>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -15604,13 +15607,13 @@
       <c r="D690">
         <v>-7.5026795284030313E-3</v>
       </c>
-      <c r="E690">
+      <c r="E690" t="str">
         <f t="shared" si="20"/>
-        <v>-100</v>
-      </c>
-      <c r="F690">
+        <v/>
+      </c>
+      <c r="F690" t="str">
         <f t="shared" si="21"/>
-        <v>-1.1662619268462351</v>
+        <v/>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -15670,13 +15673,13 @@
       <c r="D693">
         <v>8.3856916773988651E-3</v>
       </c>
-      <c r="E693">
+      <c r="E693" t="str">
         <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="F693">
+        <v/>
+      </c>
+      <c r="F693" t="str">
         <f t="shared" si="21"/>
-        <v>-2.2288885081678109</v>
+        <v/>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -15979,7 +15982,7 @@
         <v>-3.0995364475555971E-2</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E770" si="22">IF(ABS(D707)&gt;0.005,SIGN(D707)*100,"")</f>
+        <f t="shared" ref="E707:E770" si="22">IF(ABS(D707)&gt;0.01,SIGN(D707)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F707">
@@ -16000,13 +16003,13 @@
       <c r="D708">
         <v>-7.4297469376685306E-3</v>
       </c>
-      <c r="E708">
+      <c r="E708" t="str">
         <f t="shared" si="22"/>
-        <v>-100</v>
-      </c>
-      <c r="F708">
+        <v/>
+      </c>
+      <c r="F708" t="str">
         <f t="shared" si="23"/>
-        <v>-1.3541770397065132</v>
+        <v/>
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
@@ -16110,13 +16113,13 @@
       <c r="D713">
         <v>6.3514598027816834E-3</v>
       </c>
-      <c r="E713">
+      <c r="E713" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F713">
+        <v/>
+      </c>
+      <c r="F713" t="str">
         <f t="shared" si="23"/>
-        <v>-0.92655292458424654</v>
+        <v/>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
@@ -16198,13 +16201,13 @@
       <c r="D717">
         <v>6.3514598027816834E-3</v>
       </c>
-      <c r="E717">
+      <c r="E717" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F717">
+        <v/>
+      </c>
+      <c r="F717" t="str">
         <f t="shared" si="23"/>
-        <v>-0.3993065406536182</v>
+        <v/>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
@@ -16242,13 +16245,13 @@
       <c r="D719">
         <v>5.612722170252619E-3</v>
       </c>
-      <c r="E719">
+      <c r="E719" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F719">
+        <v/>
+      </c>
+      <c r="F719" t="str">
         <f t="shared" si="23"/>
-        <v>1.966781395348844</v>
+        <v/>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
@@ -16418,13 +16421,13 @@
       <c r="D727">
         <v>-7.4297469376685306E-3</v>
       </c>
-      <c r="E727">
+      <c r="E727" t="str">
         <f t="shared" si="22"/>
-        <v>-100</v>
-      </c>
-      <c r="F727">
+        <v/>
+      </c>
+      <c r="F727" t="str">
         <f t="shared" si="23"/>
-        <v>2.4246106405866321</v>
+        <v/>
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
@@ -16594,13 +16597,13 @@
       <c r="D735">
         <v>5.612722170252619E-3</v>
       </c>
-      <c r="E735">
+      <c r="E735" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F735">
+        <v/>
+      </c>
+      <c r="F735" t="str">
         <f t="shared" si="23"/>
-        <v>-0.72847286697941527</v>
+        <v/>
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
@@ -16616,13 +16619,13 @@
       <c r="D736">
         <v>5.612722170252619E-3</v>
       </c>
-      <c r="E736">
+      <c r="E736" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F736">
+        <v/>
+      </c>
+      <c r="F736" t="str">
         <f t="shared" si="23"/>
-        <v>0.20013742227968259</v>
+        <v/>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
@@ -16638,13 +16641,13 @@
       <c r="D737">
         <v>-6.2556624688259524E-3</v>
       </c>
-      <c r="E737">
+      <c r="E737" t="str">
         <f t="shared" si="22"/>
-        <v>-100</v>
-      </c>
-      <c r="F737">
+        <v/>
+      </c>
+      <c r="F737" t="str">
         <f t="shared" si="23"/>
-        <v>3.808260782516065</v>
+        <v/>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
@@ -16726,13 +16729,13 @@
       <c r="D741">
         <v>-9.265529245842466E-3</v>
       </c>
-      <c r="E741">
+      <c r="E741" t="str">
         <f t="shared" si="22"/>
-        <v>-100</v>
-      </c>
-      <c r="F741">
+        <v/>
+      </c>
+      <c r="F741" t="str">
         <f t="shared" si="23"/>
-        <v>-0.8906321830739623</v>
+        <v/>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
@@ -16770,13 +16773,13 @@
       <c r="D743">
         <v>8.6300992312797545E-3</v>
       </c>
-      <c r="E743">
+      <c r="E743" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F743">
+        <v/>
+      </c>
+      <c r="F743" t="str">
         <f t="shared" si="23"/>
-        <v>2.2246102075202447</v>
+        <v/>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
@@ -17144,13 +17147,13 @@
       <c r="D760">
         <v>8.0595800468499044E-3</v>
       </c>
-      <c r="E760">
+      <c r="E760" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F760">
+        <v/>
+      </c>
+      <c r="F760" t="str">
         <f t="shared" si="23"/>
-        <v>-0.46764519535376325</v>
+        <v/>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
@@ -17166,13 +17169,13 @@
       <c r="D761">
         <v>8.906321830739623E-3</v>
       </c>
-      <c r="E761">
+      <c r="E761" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F761">
+        <v/>
+      </c>
+      <c r="F761" t="str">
         <f t="shared" si="23"/>
-        <v>-2.9251258843627013</v>
+        <v/>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -17188,13 +17191,13 @@
       <c r="D762">
         <v>8.0595800468499044E-3</v>
       </c>
-      <c r="E762">
+      <c r="E762" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F762">
+        <v/>
+      </c>
+      <c r="F762" t="str">
         <f t="shared" si="23"/>
-        <v>1.5612786885245831</v>
+        <v/>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
@@ -17254,13 +17257,13 @@
       <c r="D765">
         <v>5.5785723704967517E-3</v>
       </c>
-      <c r="E765">
+      <c r="E765" t="str">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F765">
+        <v/>
+      </c>
+      <c r="F765" t="str">
         <f t="shared" si="23"/>
-        <v>-1.270121123469516</v>
+        <v/>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -17387,7 +17390,7 @@
         <v>-2.8512306101344431E-2</v>
       </c>
       <c r="E771">
-        <f t="shared" ref="E771:E834" si="24">IF(ABS(D771)&gt;0.005,SIGN(D771)*100,"")</f>
+        <f t="shared" ref="E771:E834" si="24">IF(ABS(D771)&gt;0.01,SIGN(D771)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F771">
@@ -17430,13 +17433,13 @@
       <c r="D773">
         <v>7.2585945945946462E-3</v>
       </c>
-      <c r="E773">
+      <c r="E773" t="str">
         <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="F773">
+        <v/>
+      </c>
+      <c r="F773" t="str">
         <f t="shared" si="25"/>
-        <v>-1.1930274195875581</v>
+        <v/>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -17738,13 +17741,13 @@
       <c r="D787">
         <v>5.6625141562854711E-3</v>
       </c>
-      <c r="E787">
+      <c r="E787" t="str">
         <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="F787">
+        <v/>
+      </c>
+      <c r="F787" t="str">
         <f t="shared" si="25"/>
-        <v>-2.2101938561031091</v>
+        <v/>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
@@ -17760,13 +17763,13 @@
       <c r="D788">
         <v>8.0595800468499044E-3</v>
       </c>
-      <c r="E788">
+      <c r="E788" t="str">
         <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="F788">
+        <v/>
+      </c>
+      <c r="F788" t="str">
         <f t="shared" si="25"/>
-        <v>2.7367695539620382</v>
+        <v/>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
@@ -17870,13 +17873,13 @@
       <c r="D793">
         <v>6.7426585159461924E-3</v>
       </c>
-      <c r="E793">
+      <c r="E793" t="str">
         <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="F793">
+        <v/>
+      </c>
+      <c r="F793" t="str">
         <f t="shared" si="25"/>
-        <v>1.046084006156516</v>
+        <v/>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -17958,13 +17961,13 @@
       <c r="D797">
         <v>-9.0229241367956476E-3</v>
       </c>
-      <c r="E797">
+      <c r="E797" t="str">
         <f t="shared" si="24"/>
-        <v>-100</v>
-      </c>
-      <c r="F797">
+        <v/>
+      </c>
+      <c r="F797" t="str">
         <f t="shared" si="25"/>
-        <v>0.87608308605340479</v>
+        <v/>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -18002,13 +18005,13 @@
       <c r="D799">
         <v>-8.8918774986648484E-3</v>
       </c>
-      <c r="E799">
+      <c r="E799" t="str">
         <f t="shared" si="24"/>
-        <v>-100</v>
-      </c>
-      <c r="F799">
+        <v/>
+      </c>
+      <c r="F799" t="str">
         <f t="shared" si="25"/>
-        <v>0.84922869904376186</v>
+        <v/>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
@@ -18024,13 +18027,13 @@
       <c r="D800">
         <v>7.2585945945946462E-3</v>
       </c>
-      <c r="E800">
+      <c r="E800" t="str">
         <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="F800">
+        <v/>
+      </c>
+      <c r="F800" t="str">
         <f t="shared" si="25"/>
-        <v>0.89862816909215792</v>
+        <v/>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -18134,13 +18137,13 @@
       <c r="D805">
         <v>-7.1965902225131044E-3</v>
       </c>
-      <c r="E805">
+      <c r="E805" t="str">
         <f t="shared" si="24"/>
-        <v>-100</v>
-      </c>
-      <c r="F805">
+        <v/>
+      </c>
+      <c r="F805" t="str">
         <f t="shared" si="25"/>
-        <v>4.1531290316870884</v>
+        <v/>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
@@ -18442,13 +18445,13 @@
       <c r="D819">
         <v>-7.3795321637426534E-3</v>
       </c>
-      <c r="E819">
+      <c r="E819" t="str">
         <f t="shared" si="24"/>
-        <v>-100</v>
-      </c>
-      <c r="F819">
+        <v/>
+      </c>
+      <c r="F819" t="str">
         <f t="shared" si="25"/>
-        <v>-5.2464444444444371</v>
+        <v/>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -18794,13 +18797,13 @@
       <c r="D835">
         <v>-8.7608308605340475E-3</v>
       </c>
-      <c r="E835">
-        <f t="shared" ref="E835:E898" si="26">IF(ABS(D835)&gt;0.005,SIGN(D835)*100,"")</f>
-        <v>-100</v>
-      </c>
-      <c r="F835">
+      <c r="E835" t="str">
+        <f t="shared" ref="E835:E898" si="26">IF(ABS(D835)&gt;0.01,SIGN(D835)*100,"")</f>
+        <v/>
+      </c>
+      <c r="F835" t="str">
         <f t="shared" ref="F835:F898" si="27">IF(ISNUMBER(E835),E835*C835,"")</f>
-        <v>0.92095953924712459</v>
+        <v/>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -18816,13 +18819,13 @@
       <c r="D836">
         <v>-8.492286990437619E-3</v>
       </c>
-      <c r="E836">
+      <c r="E836" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F836">
+        <v/>
+      </c>
+      <c r="F836" t="str">
         <f t="shared" si="27"/>
-        <v>0.13520872292054259</v>
+        <v/>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
@@ -18926,13 +18929,13 @@
       <c r="D841">
         <v>-9.2512651683971745E-3</v>
       </c>
-      <c r="E841">
+      <c r="E841" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F841">
+        <v/>
+      </c>
+      <c r="F841" t="str">
         <f t="shared" si="27"/>
-        <v>0.64325277045804719</v>
+        <v/>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -19036,13 +19039,13 @@
       <c r="D846">
         <v>-9.2512651683971745E-3</v>
       </c>
-      <c r="E846">
+      <c r="E846" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F846">
+        <v/>
+      </c>
+      <c r="F846" t="str">
         <f t="shared" si="27"/>
-        <v>-0.1088804229519223</v>
+        <v/>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -19102,13 +19105,13 @@
       <c r="D849">
         <v>9.0332694413466762E-3</v>
       </c>
-      <c r="E849">
+      <c r="E849" t="str">
         <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="F849">
+        <v/>
+      </c>
+      <c r="F849" t="str">
         <f t="shared" si="27"/>
-        <v>-1.466666666666671</v>
+        <v/>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
@@ -19190,13 +19193,13 @@
       <c r="D853">
         <v>-9.2095953924712457E-3</v>
       </c>
-      <c r="E853">
+      <c r="E853" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F853">
+        <v/>
+      </c>
+      <c r="F853" t="str">
         <f t="shared" si="27"/>
-        <v>1.8700771917688781</v>
+        <v/>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -19256,13 +19259,13 @@
       <c r="D856">
         <v>8.4883280204866782E-3</v>
       </c>
-      <c r="E856">
+      <c r="E856" t="str">
         <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="F856">
+        <v/>
+      </c>
+      <c r="F856" t="str">
         <f t="shared" si="27"/>
-        <v>0.3560958354190949</v>
+        <v/>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
@@ -19322,13 +19325,13 @@
       <c r="D859">
         <v>-8.6821702734210856E-3</v>
       </c>
-      <c r="E859">
+      <c r="E859" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F859">
+        <v/>
+      </c>
+      <c r="F859" t="str">
         <f t="shared" si="27"/>
-        <v>-4.5198606656283875</v>
+        <v/>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -19476,13 +19479,13 @@
       <c r="D866">
         <v>9.9926178967614503E-3</v>
       </c>
-      <c r="E866">
+      <c r="E866" t="str">
         <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="F866">
+        <v/>
+      </c>
+      <c r="F866" t="str">
         <f t="shared" si="27"/>
-        <v>-2.474289686263532</v>
+        <v/>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -19498,13 +19501,13 @@
       <c r="D867">
         <v>-9.2771386488321866E-3</v>
       </c>
-      <c r="E867">
+      <c r="E867" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F867">
+        <v/>
+      </c>
+      <c r="F867" t="str">
         <f t="shared" si="27"/>
-        <v>3.3318095165549559</v>
+        <v/>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
@@ -19630,13 +19633,13 @@
       <c r="D873">
         <v>-8.6821702734210856E-3</v>
       </c>
-      <c r="E873">
+      <c r="E873" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F873">
+        <v/>
+      </c>
+      <c r="F873" t="str">
         <f t="shared" si="27"/>
-        <v>0.42647498745660828</v>
+        <v/>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -19696,13 +19699,13 @@
       <c r="D876">
         <v>5.8357772581807237E-3</v>
       </c>
-      <c r="E876">
+      <c r="E876" t="str">
         <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="F876">
+        <v/>
+      </c>
+      <c r="F876" t="str">
         <f t="shared" si="27"/>
-        <v>1.9796101373608199</v>
+        <v/>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
@@ -19872,13 +19875,13 @@
       <c r="D884">
         <v>-8.9473039038887557E-3</v>
       </c>
-      <c r="E884">
+      <c r="E884" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F884">
+        <v/>
+      </c>
+      <c r="F884" t="str">
         <f t="shared" si="27"/>
-        <v>-0.71554761558918356</v>
+        <v/>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -20026,13 +20029,13 @@
       <c r="D891">
         <v>-8.6821702734210856E-3</v>
       </c>
-      <c r="E891">
+      <c r="E891" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F891">
+        <v/>
+      </c>
+      <c r="F891" t="str">
         <f t="shared" si="27"/>
-        <v>-1.1942278490840419</v>
+        <v/>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
@@ -20048,13 +20051,13 @@
       <c r="D892">
         <v>-8.6821702734210856E-3</v>
       </c>
-      <c r="E892">
+      <c r="E892" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F892">
+        <v/>
+      </c>
+      <c r="F892" t="str">
         <f t="shared" si="27"/>
-        <v>-1.1937127614602649</v>
+        <v/>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
@@ -20070,13 +20073,13 @@
       <c r="D893">
         <v>-8.6821702734210856E-3</v>
       </c>
-      <c r="E893">
+      <c r="E893" t="str">
         <f t="shared" si="26"/>
-        <v>-100</v>
-      </c>
-      <c r="F893">
+        <v/>
+      </c>
+      <c r="F893" t="str">
         <f t="shared" si="27"/>
-        <v>1.0723887255711959</v>
+        <v/>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -20158,13 +20161,13 @@
       <c r="D897">
         <v>6.1163114319684811E-3</v>
       </c>
-      <c r="E897">
+      <c r="E897" t="str">
         <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="F897">
+        <v/>
+      </c>
+      <c r="F897" t="str">
         <f t="shared" si="27"/>
-        <v>-1.2624651162790639</v>
+        <v/>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -20203,7 +20206,7 @@
         <v>1.169671986277813E-2</v>
       </c>
       <c r="E899">
-        <f t="shared" ref="E899:E962" si="28">IF(ABS(D899)&gt;0.005,SIGN(D899)*100,"")</f>
+        <f t="shared" ref="E899:E962" si="28">IF(ABS(D899)&gt;0.01,SIGN(D899)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F899">
@@ -20422,13 +20425,13 @@
       <c r="D909">
         <v>5.4246504240497498E-3</v>
       </c>
-      <c r="E909">
+      <c r="E909" t="str">
         <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F909">
+        <v/>
+      </c>
+      <c r="F909" t="str">
         <f t="shared" si="29"/>
-        <v>1.0027073306599981</v>
+        <v/>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
@@ -20444,13 +20447,13 @@
       <c r="D910">
         <v>-8.3311472051406238E-3</v>
       </c>
-      <c r="E910">
+      <c r="E910" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F910">
+        <v/>
+      </c>
+      <c r="F910" t="str">
         <f t="shared" si="29"/>
-        <v>1.5025490274704481</v>
+        <v/>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -20620,13 +20623,13 @@
       <c r="D918">
         <v>-8.1012965724538352E-3</v>
       </c>
-      <c r="E918">
+      <c r="E918" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F918">
+        <v/>
+      </c>
+      <c r="F918" t="str">
         <f t="shared" si="29"/>
-        <v>-1.2916361297523609</v>
+        <v/>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -20730,13 +20733,13 @@
       <c r="D923">
         <v>6.7609591523519674E-3</v>
       </c>
-      <c r="E923">
+      <c r="E923" t="str">
         <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F923">
+        <v/>
+      </c>
+      <c r="F923" t="str">
         <f t="shared" si="29"/>
-        <v>-2.152908763160442</v>
+        <v/>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">
@@ -20796,13 +20799,13 @@
       <c r="D926">
         <v>-6.5947918300668417E-3</v>
       </c>
-      <c r="E926">
+      <c r="E926" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F926">
+        <v/>
+      </c>
+      <c r="F926" t="str">
         <f t="shared" si="29"/>
-        <v>2.6880432228863809</v>
+        <v/>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
@@ -20818,13 +20821,13 @@
       <c r="D927">
         <v>-6.5947918300668417E-3</v>
       </c>
-      <c r="E927">
+      <c r="E927" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F927">
+        <v/>
+      </c>
+      <c r="F927" t="str">
         <f t="shared" si="29"/>
-        <v>-0.55753424718284594</v>
+        <v/>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
@@ -20862,13 +20865,13 @@
       <c r="D929">
         <v>-5.1663809832865164E-3</v>
       </c>
-      <c r="E929">
+      <c r="E929" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F929">
+        <v/>
+      </c>
+      <c r="F929" t="str">
         <f t="shared" si="29"/>
-        <v>-1.899939274221897</v>
+        <v/>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.25">
@@ -20950,13 +20953,13 @@
       <c r="D933">
         <v>7.8408444854142587E-3</v>
       </c>
-      <c r="E933">
+      <c r="E933" t="str">
         <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F933">
+        <v/>
+      </c>
+      <c r="F933" t="str">
         <f t="shared" si="29"/>
-        <v>-0.39497424326904718</v>
+        <v/>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.25">
@@ -20972,13 +20975,13 @@
       <c r="D934">
         <v>7.8408444854142587E-3</v>
       </c>
-      <c r="E934">
+      <c r="E934" t="str">
         <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F934">
+        <v/>
+      </c>
+      <c r="F934" t="str">
         <f t="shared" si="29"/>
-        <v>1.8985711656538791</v>
+        <v/>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
@@ -21258,13 +21261,13 @@
       <c r="D947">
         <v>-8.3311472051406238E-3</v>
       </c>
-      <c r="E947">
+      <c r="E947" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F947">
+        <v/>
+      </c>
+      <c r="F947" t="str">
         <f t="shared" si="29"/>
-        <v>-8.7149242219455261E-2</v>
+        <v/>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
@@ -21280,13 +21283,13 @@
       <c r="D948">
         <v>5.5753424718284596E-3</v>
       </c>
-      <c r="E948">
+      <c r="E948" t="str">
         <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="F948">
+        <v/>
+      </c>
+      <c r="F948" t="str">
         <f t="shared" si="29"/>
-        <v>-0.25032542991565959</v>
+        <v/>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.25">
@@ -21346,13 +21349,13 @@
       <c r="D951">
         <v>-6.7299318202757134E-3</v>
       </c>
-      <c r="E951">
+      <c r="E951" t="str">
         <f t="shared" si="28"/>
-        <v>-100</v>
-      </c>
-      <c r="F951">
+        <v/>
+      </c>
+      <c r="F951" t="str">
         <f t="shared" si="29"/>
-        <v>3.1100667826309749</v>
+        <v/>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -21611,7 +21614,7 @@
         <v>1.8985711656538791E-2</v>
       </c>
       <c r="E963">
-        <f t="shared" ref="E963:E1026" si="30">IF(ABS(D963)&gt;0.005,SIGN(D963)*100,"")</f>
+        <f t="shared" ref="E963:E1026" si="30">IF(ABS(D963)&gt;0.01,SIGN(D963)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F963">
@@ -21632,13 +21635,13 @@
       <c r="D964">
         <v>-6.7299318202757134E-3</v>
       </c>
-      <c r="E964">
+      <c r="E964" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F964">
+        <v/>
+      </c>
+      <c r="F964" t="str">
         <f t="shared" si="31"/>
-        <v>-2.6487497722648827</v>
+        <v/>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
@@ -21742,13 +21745,13 @@
       <c r="D969">
         <v>-7.4483920815390861E-3</v>
       </c>
-      <c r="E969">
+      <c r="E969" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F969">
+        <v/>
+      </c>
+      <c r="F969" t="str">
         <f t="shared" si="31"/>
-        <v>-0.2215238454182466</v>
+        <v/>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
@@ -21874,13 +21877,13 @@
       <c r="D975">
         <v>-6.7299318202757134E-3</v>
       </c>
-      <c r="E975">
+      <c r="E975" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F975">
+        <v/>
+      </c>
+      <c r="F975" t="str">
         <f t="shared" si="31"/>
-        <v>-1.9648871853539089</v>
+        <v/>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
@@ -21896,13 +21899,13 @@
       <c r="D976">
         <v>-6.7299318202757134E-3</v>
       </c>
-      <c r="E976">
+      <c r="E976" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F976">
+        <v/>
+      </c>
+      <c r="F976" t="str">
         <f t="shared" si="31"/>
-        <v>5.5965559081943912</v>
+        <v/>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.25">
@@ -21918,13 +21921,13 @@
       <c r="D977">
         <v>-6.7299318202757134E-3</v>
       </c>
-      <c r="E977">
+      <c r="E977" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F977">
+        <v/>
+      </c>
+      <c r="F977" t="str">
         <f t="shared" si="31"/>
-        <v>3.7676492533371331</v>
+        <v/>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.25">
@@ -22072,13 +22075,13 @@
       <c r="D984">
         <v>5.7003257328990461E-3</v>
       </c>
-      <c r="E984">
+      <c r="E984" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F984">
+        <v/>
+      </c>
+      <c r="F984" t="str">
         <f t="shared" si="31"/>
-        <v>0.15064195193425661</v>
+        <v/>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
@@ -22094,13 +22097,13 @@
       <c r="D985">
         <v>-9.2985655664427919E-3</v>
       </c>
-      <c r="E985">
+      <c r="E985" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F985">
+        <v/>
+      </c>
+      <c r="F985" t="str">
         <f t="shared" si="31"/>
-        <v>1.8165011938389399</v>
+        <v/>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
@@ -22314,13 +22317,13 @@
       <c r="D995">
         <v>5.2674937313007047E-3</v>
       </c>
-      <c r="E995">
+      <c r="E995" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F995">
+        <v/>
+      </c>
+      <c r="F995" t="str">
         <f t="shared" si="31"/>
-        <v>-0.62235558060956897</v>
+        <v/>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
@@ -22358,13 +22361,13 @@
       <c r="D997">
         <v>-6.2235558060956897E-3</v>
       </c>
-      <c r="E997">
+      <c r="E997" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F997">
+        <v/>
+      </c>
+      <c r="F997" t="str">
         <f t="shared" si="31"/>
-        <v>0.2223712598869641</v>
+        <v/>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
@@ -22468,13 +22471,13 @@
       <c r="D1002">
         <v>-6.2235558060956897E-3</v>
       </c>
-      <c r="E1002">
+      <c r="E1002" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F1002">
+        <v/>
+      </c>
+      <c r="F1002" t="str">
         <f t="shared" si="31"/>
-        <v>-0.76267495779862771</v>
+        <v/>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
@@ -22622,13 +22625,13 @@
       <c r="D1009">
         <v>-6.2235558060956897E-3</v>
       </c>
-      <c r="E1009">
+      <c r="E1009" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F1009">
+        <v/>
+      </c>
+      <c r="F1009" t="str">
         <f t="shared" si="31"/>
-        <v>-0.28473576634095782</v>
+        <v/>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
@@ -22644,13 +22647,13 @@
       <c r="D1010">
         <v>-6.2235558060956897E-3</v>
       </c>
-      <c r="E1010">
+      <c r="E1010" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F1010">
+        <v/>
+      </c>
+      <c r="F1010" t="str">
         <f t="shared" si="31"/>
-        <v>-0.6132890612137063</v>
+        <v/>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -22666,13 +22669,13 @@
       <c r="D1011">
         <v>6.1328906121370626E-3</v>
       </c>
-      <c r="E1011">
+      <c r="E1011" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F1011">
+        <v/>
+      </c>
+      <c r="F1011" t="str">
         <f t="shared" si="31"/>
-        <v>0.2370549776962437</v>
+        <v/>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
@@ -22732,13 +22735,13 @@
       <c r="D1014">
         <v>-6.2235558060956897E-3</v>
       </c>
-      <c r="E1014">
+      <c r="E1014" t="str">
         <f t="shared" si="30"/>
-        <v>-100</v>
-      </c>
-      <c r="F1014">
+        <v/>
+      </c>
+      <c r="F1014" t="str">
         <f t="shared" si="31"/>
-        <v>0.90593670625139333</v>
+        <v/>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
@@ -22754,13 +22757,13 @@
       <c r="D1015">
         <v>9.5710504549214679E-3</v>
       </c>
-      <c r="E1015">
+      <c r="E1015" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F1015">
+        <v/>
+      </c>
+      <c r="F1015" t="str">
         <f t="shared" si="31"/>
-        <v>1.5349909533296731</v>
+        <v/>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
@@ -22820,13 +22823,13 @@
       <c r="D1018">
         <v>7.8177348285324213E-3</v>
       </c>
-      <c r="E1018">
+      <c r="E1018" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F1018">
+        <v/>
+      </c>
+      <c r="F1018" t="str">
         <f t="shared" si="31"/>
-        <v>1.230049826128665</v>
+        <v/>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
@@ -22864,13 +22867,13 @@
       <c r="D1020">
         <v>5.2674937313007047E-3</v>
       </c>
-      <c r="E1020">
+      <c r="E1020" t="str">
         <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="F1020">
+        <v/>
+      </c>
+      <c r="F1020" t="str">
         <f t="shared" si="31"/>
-        <v>1.891506623823026</v>
+        <v/>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
@@ -23019,7 +23022,7 @@
         <v>-3.8238738293351317E-2</v>
       </c>
       <c r="E1027">
-        <f t="shared" ref="E1027:E1090" si="32">IF(ABS(D1027)&gt;0.005,SIGN(D1027)*100,"")</f>
+        <f t="shared" ref="E1027:E1090" si="32">IF(ABS(D1027)&gt;0.01,SIGN(D1027)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1027">
@@ -23084,13 +23087,13 @@
       <c r="D1030">
         <v>7.8177348285324213E-3</v>
       </c>
-      <c r="E1030">
+      <c r="E1030" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1030">
+        <v/>
+      </c>
+      <c r="F1030" t="str">
         <f t="shared" si="33"/>
-        <v>-0.86370445400993823</v>
+        <v/>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
@@ -23106,13 +23109,13 @@
       <c r="D1031">
         <v>-8.6370445400993819E-3</v>
       </c>
-      <c r="E1031">
+      <c r="E1031" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1031">
+        <v/>
+      </c>
+      <c r="F1031" t="str">
         <f t="shared" si="33"/>
-        <v>-1.1581013845750321</v>
+        <v/>
       </c>
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
@@ -23128,13 +23131,13 @@
       <c r="D1032">
         <v>8.6461562721961947E-3</v>
       </c>
-      <c r="E1032">
+      <c r="E1032" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1032">
+        <v/>
+      </c>
+      <c r="F1032" t="str">
         <f t="shared" si="33"/>
-        <v>-1.6174771047953771</v>
+        <v/>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
@@ -23238,13 +23241,13 @@
       <c r="D1037">
         <v>-8.4288936602314856E-3</v>
       </c>
-      <c r="E1037">
+      <c r="E1037" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1037">
+        <v/>
+      </c>
+      <c r="F1037" t="str">
         <f t="shared" si="33"/>
-        <v>-1.5788992462923521</v>
+        <v/>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
@@ -23260,13 +23263,13 @@
       <c r="D1038">
         <v>-7.2723860187101702E-3</v>
       </c>
-      <c r="E1038">
+      <c r="E1038" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1038">
+        <v/>
+      </c>
+      <c r="F1038" t="str">
         <f t="shared" si="33"/>
-        <v>2.0000063913039283</v>
+        <v/>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
@@ -23326,13 +23329,13 @@
       <c r="D1041">
         <v>6.1328906121370626E-3</v>
       </c>
-      <c r="E1041">
+      <c r="E1041" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1041">
+        <v/>
+      </c>
+      <c r="F1041" t="str">
         <f t="shared" si="33"/>
-        <v>0.77016947794969592</v>
+        <v/>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
@@ -23348,13 +23351,13 @@
       <c r="D1042">
         <v>-8.2207427803635894E-3</v>
       </c>
-      <c r="E1042">
+      <c r="E1042" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1042">
+        <v/>
+      </c>
+      <c r="F1042" t="str">
         <f t="shared" si="33"/>
-        <v>-2.5876154036987571</v>
+        <v/>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
@@ -23392,13 +23395,13 @@
       <c r="D1044">
         <v>-8.4288936602314856E-3</v>
       </c>
-      <c r="E1044">
+      <c r="E1044" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1044">
+        <v/>
+      </c>
+      <c r="F1044" t="str">
         <f t="shared" si="33"/>
-        <v>-7.8000634256585908</v>
+        <v/>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -23480,13 +23483,13 @@
       <c r="D1048">
         <v>6.9310022549094359E-3</v>
       </c>
-      <c r="E1048">
+      <c r="E1048" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1048">
+        <v/>
+      </c>
+      <c r="F1048" t="str">
         <f t="shared" si="33"/>
-        <v>6.0243999796725761E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
@@ -23634,13 +23637,13 @@
       <c r="D1055">
         <v>6.9310022549094359E-3</v>
       </c>
-      <c r="E1055">
+      <c r="E1055" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1055">
+        <v/>
+      </c>
+      <c r="F1055" t="str">
         <f t="shared" si="33"/>
-        <v>1.0409865989026299</v>
+        <v/>
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
@@ -23656,13 +23659,13 @@
       <c r="D1056">
         <v>7.7016947794969594E-3</v>
       </c>
-      <c r="E1056">
+      <c r="E1056" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1056">
+        <v/>
+      </c>
+      <c r="F1056" t="str">
         <f t="shared" si="33"/>
-        <v>1.744938692827025</v>
+        <v/>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -23678,13 +23681,13 @@
       <c r="D1057">
         <v>7.7016947794969594E-3</v>
       </c>
-      <c r="E1057">
+      <c r="E1057" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1057">
+        <v/>
+      </c>
+      <c r="F1057" t="str">
         <f t="shared" si="33"/>
-        <v>-4.5613026819929819E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
@@ -23810,13 +23813,13 @@
       <c r="D1063">
         <v>-9.4916218809127737E-3</v>
       </c>
-      <c r="E1063">
+      <c r="E1063" t="str">
         <f t="shared" si="32"/>
-        <v>-100</v>
-      </c>
-      <c r="F1063">
+        <v/>
+      </c>
+      <c r="F1063" t="str">
         <f t="shared" si="33"/>
-        <v>-1.360124455507145</v>
+        <v/>
       </c>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
@@ -24074,13 +24077,13 @@
       <c r="D1075">
         <v>7.330483364953691E-3</v>
       </c>
-      <c r="E1075">
+      <c r="E1075" t="str">
         <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="F1075">
+        <v/>
+      </c>
+      <c r="F1075" t="str">
         <f t="shared" si="33"/>
-        <v>0.14306549606842059</v>
+        <v/>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
@@ -24427,7 +24430,7 @@
         <v>-1.0612164160246639E-2</v>
       </c>
       <c r="E1091">
-        <f t="shared" ref="E1091:E1154" si="34">IF(ABS(D1091)&gt;0.005,SIGN(D1091)*100,"")</f>
+        <f t="shared" ref="E1091:E1154" si="34">IF(ABS(D1091)&gt;0.01,SIGN(D1091)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1091">
@@ -24448,13 +24451,13 @@
       <c r="D1092">
         <v>-9.4916218809127737E-3</v>
       </c>
-      <c r="E1092">
+      <c r="E1092" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1092">
+        <v/>
+      </c>
+      <c r="F1092" t="str">
         <f t="shared" si="35"/>
-        <v>-5.573767030368292</v>
+        <v/>
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
@@ -24470,13 +24473,13 @@
       <c r="D1093">
         <v>6.6404509704595018E-3</v>
       </c>
-      <c r="E1093">
+      <c r="E1093" t="str">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="F1093">
+        <v/>
+      </c>
+      <c r="F1093" t="str">
         <f t="shared" si="35"/>
-        <v>3.3618043478260891</v>
+        <v/>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
@@ -24514,13 +24517,13 @@
       <c r="D1095">
         <v>8.5782794084972996E-3</v>
       </c>
-      <c r="E1095">
+      <c r="E1095" t="str">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="F1095">
+        <v/>
+      </c>
+      <c r="F1095" t="str">
         <f t="shared" si="35"/>
-        <v>-2.6439039928661123</v>
+        <v/>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
@@ -24536,13 +24539,13 @@
       <c r="D1096">
         <v>-7.1802585240556532E-3</v>
       </c>
-      <c r="E1096">
+      <c r="E1096" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1096">
+        <v/>
+      </c>
+      <c r="F1096" t="str">
         <f t="shared" si="35"/>
-        <v>-2.4751800892358751</v>
+        <v/>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
@@ -24712,13 +24715,13 @@
       <c r="D1104">
         <v>9.6222813754686994E-3</v>
       </c>
-      <c r="E1104">
+      <c r="E1104" t="str">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="F1104">
+        <v/>
+      </c>
+      <c r="F1104" t="str">
         <f t="shared" si="35"/>
-        <v>1.171903299285608</v>
+        <v/>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
@@ -24778,13 +24781,13 @@
       <c r="D1107">
         <v>-6.5762611803373934E-3</v>
       </c>
-      <c r="E1107">
+      <c r="E1107" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1107">
+        <v/>
+      </c>
+      <c r="F1107" t="str">
         <f t="shared" si="35"/>
-        <v>-6.2322525031178984</v>
+        <v/>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
@@ -24800,13 +24803,13 @@
       <c r="D1108">
         <v>-6.5762611803373934E-3</v>
       </c>
-      <c r="E1108">
+      <c r="E1108" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1108">
+        <v/>
+      </c>
+      <c r="F1108" t="str">
         <f t="shared" si="35"/>
-        <v>-0.19189431578514191</v>
+        <v/>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
@@ -24844,13 +24847,13 @@
       <c r="D1110">
         <v>-7.5429202665749503E-3</v>
       </c>
-      <c r="E1110">
+      <c r="E1110" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1110">
+        <v/>
+      </c>
+      <c r="F1110" t="str">
         <f t="shared" si="35"/>
-        <v>0.94228640082349902</v>
+        <v/>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
@@ -24866,13 +24869,13 @@
       <c r="D1111">
         <v>7.8480963468381751E-3</v>
       </c>
-      <c r="E1111">
+      <c r="E1111" t="str">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="F1111">
+        <v/>
+      </c>
+      <c r="F1111" t="str">
         <f t="shared" si="35"/>
-        <v>-6.5258437920424601</v>
+        <v/>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
@@ -25086,13 +25089,13 @@
       <c r="D1121">
         <v>-6.5762611803373934E-3</v>
       </c>
-      <c r="E1121">
+      <c r="E1121" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1121">
+        <v/>
+      </c>
+      <c r="F1121" t="str">
         <f t="shared" si="35"/>
-        <v>4.3261352846976635</v>
+        <v/>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
@@ -25526,13 +25529,13 @@
       <c r="D1141">
         <v>-9.4228640082349904E-3</v>
       </c>
-      <c r="E1141">
+      <c r="E1141" t="str">
         <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-      <c r="F1141">
+        <v/>
+      </c>
+      <c r="F1141" t="str">
         <f t="shared" si="35"/>
-        <v>-2.0883873660681838</v>
+        <v/>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
@@ -25812,13 +25815,13 @@
       <c r="D1154">
         <v>6.6428717424629547E-3</v>
       </c>
-      <c r="E1154">
+      <c r="E1154" t="str">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="F1154">
+        <v/>
+      </c>
+      <c r="F1154" t="str">
         <f t="shared" si="35"/>
-        <v>1.241674966047986</v>
+        <v/>
       </c>
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
@@ -25835,7 +25838,7 @@
         <v>5.0363333680008822E-4</v>
       </c>
       <c r="E1155" t="str">
-        <f t="shared" ref="E1155:E1218" si="36">IF(ABS(D1155)&gt;0.005,SIGN(D1155)*100,"")</f>
+        <f t="shared" ref="E1155:E1218" si="36">IF(ABS(D1155)&gt;0.01,SIGN(D1155)*100,"")</f>
         <v/>
       </c>
       <c r="F1155" t="str">
@@ -25878,13 +25881,13 @@
       <c r="D1157">
         <v>6.6428717424629547E-3</v>
       </c>
-      <c r="E1157">
+      <c r="E1157" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1157">
+        <v/>
+      </c>
+      <c r="F1157" t="str">
         <f t="shared" si="37"/>
-        <v>0.23418544896671128</v>
+        <v/>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
@@ -25988,13 +25991,13 @@
       <c r="D1162">
         <v>-8.4739069225990126E-3</v>
       </c>
-      <c r="E1162">
+      <c r="E1162" t="str">
         <f t="shared" si="36"/>
-        <v>-100</v>
-      </c>
-      <c r="F1162">
+        <v/>
+      </c>
+      <c r="F1162" t="str">
         <f t="shared" si="37"/>
-        <v>3.8232251494825613</v>
+        <v/>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
@@ -26208,13 +26211,13 @@
       <c r="D1172">
         <v>7.7554744525546596E-3</v>
       </c>
-      <c r="E1172">
+      <c r="E1172" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1172">
+        <v/>
+      </c>
+      <c r="F1172" t="str">
         <f t="shared" si="37"/>
-        <v>0.22718288527073549</v>
+        <v/>
       </c>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
@@ -26296,13 +26299,13 @@
       <c r="D1176">
         <v>7.7881297250611114E-3</v>
       </c>
-      <c r="E1176">
+      <c r="E1176" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1176">
+        <v/>
+      </c>
+      <c r="F1176" t="str">
         <f t="shared" si="37"/>
-        <v>0.51698077378300122</v>
+        <v/>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
@@ -26582,13 +26585,13 @@
       <c r="D1189">
         <v>-6.8909606809891243E-3</v>
       </c>
-      <c r="E1189">
+      <c r="E1189" t="str">
         <f t="shared" si="36"/>
-        <v>-100</v>
-      </c>
-      <c r="F1189">
+        <v/>
+      </c>
+      <c r="F1189" t="str">
         <f t="shared" si="37"/>
-        <v>0.2588777891428834</v>
+        <v/>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
@@ -26714,13 +26717,13 @@
       <c r="D1195">
         <v>9.255176345929518E-3</v>
       </c>
-      <c r="E1195">
+      <c r="E1195" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1195">
+        <v/>
+      </c>
+      <c r="F1195" t="str">
         <f t="shared" si="37"/>
-        <v>1.4760728424386331</v>
+        <v/>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
@@ -26758,13 +26761,13 @@
       <c r="D1197">
         <v>9.255176345929518E-3</v>
       </c>
-      <c r="E1197">
+      <c r="E1197" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1197">
+        <v/>
+      </c>
+      <c r="F1197" t="str">
         <f t="shared" si="37"/>
-        <v>-2.9251622874194632</v>
+        <v/>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
@@ -26780,13 +26783,13 @@
       <c r="D1198">
         <v>-6.5508624316365036E-3</v>
       </c>
-      <c r="E1198">
+      <c r="E1198" t="str">
         <f t="shared" si="36"/>
-        <v>-100</v>
-      </c>
-      <c r="F1198">
+        <v/>
+      </c>
+      <c r="F1198" t="str">
         <f t="shared" si="37"/>
-        <v>2.5899076212471188</v>
+        <v/>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
@@ -26956,13 +26959,13 @@
       <c r="D1206">
         <v>9.4986403286225329E-3</v>
       </c>
-      <c r="E1206">
+      <c r="E1206" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1206">
+        <v/>
+      </c>
+      <c r="F1206" t="str">
         <f t="shared" si="37"/>
-        <v>9.4644828855348376E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
@@ -26978,13 +26981,13 @@
       <c r="D1207">
         <v>5.9920347744412327E-3</v>
       </c>
-      <c r="E1207">
+      <c r="E1207" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1207">
+        <v/>
+      </c>
+      <c r="F1207" t="str">
         <f t="shared" si="37"/>
-        <v>0.1838488158888254</v>
+        <v/>
       </c>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
@@ -27000,13 +27003,13 @@
       <c r="D1208">
         <v>-6.5508624316365036E-3</v>
       </c>
-      <c r="E1208">
+      <c r="E1208" t="str">
         <f t="shared" si="36"/>
-        <v>-100</v>
-      </c>
-      <c r="F1208">
+        <v/>
+      </c>
+      <c r="F1208" t="str">
         <f t="shared" si="37"/>
-        <v>2.2021812311470272</v>
+        <v/>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
@@ -27110,13 +27113,13 @@
       <c r="D1213">
         <v>9.255176345929518E-3</v>
       </c>
-      <c r="E1213">
+      <c r="E1213" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1213">
+        <v/>
+      </c>
+      <c r="F1213" t="str">
         <f t="shared" si="37"/>
-        <v>2.040710115766132</v>
+        <v/>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
@@ -27154,13 +27157,13 @@
       <c r="D1215">
         <v>9.2606684811711529E-3</v>
       </c>
-      <c r="E1215">
+      <c r="E1215" t="str">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="F1215">
+        <v/>
+      </c>
+      <c r="F1215" t="str">
         <f t="shared" si="37"/>
-        <v>0.82432519490839073</v>
+        <v/>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
@@ -27198,13 +27201,13 @@
       <c r="D1217">
         <v>-6.7265778018296722E-3</v>
       </c>
-      <c r="E1217">
+      <c r="E1217" t="str">
         <f t="shared" si="36"/>
-        <v>-100</v>
-      </c>
-      <c r="F1217">
+        <v/>
+      </c>
+      <c r="F1217" t="str">
         <f t="shared" si="37"/>
-        <v>0.11529122807017869</v>
+        <v/>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
@@ -27243,7 +27246,7 @@
         <v>-1.9174954263849291E-2</v>
       </c>
       <c r="E1219">
-        <f t="shared" ref="E1219:E1282" si="38">IF(ABS(D1219)&gt;0.005,SIGN(D1219)*100,"")</f>
+        <f t="shared" ref="E1219:E1282" si="38">IF(ABS(D1219)&gt;0.01,SIGN(D1219)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1219">
@@ -27418,13 +27421,13 @@
       <c r="D1227">
         <v>9.2606684811711529E-3</v>
       </c>
-      <c r="E1227">
+      <c r="E1227" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1227">
+        <v/>
+      </c>
+      <c r="F1227" t="str">
         <f t="shared" si="39"/>
-        <v>-7.0279063756680156</v>
+        <v/>
       </c>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
@@ -27572,13 +27575,13 @@
       <c r="D1234">
         <v>-7.1433103895272481E-3</v>
       </c>
-      <c r="E1234">
+      <c r="E1234" t="str">
         <f t="shared" si="38"/>
-        <v>-100</v>
-      </c>
-      <c r="F1234">
+        <v/>
+      </c>
+      <c r="F1234" t="str">
         <f t="shared" si="39"/>
-        <v>7.7919329523011349</v>
+        <v/>
       </c>
     </row>
     <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
@@ -27726,13 +27729,13 @@
       <c r="D1241">
         <v>8.6364091399796419E-3</v>
       </c>
-      <c r="E1241">
+      <c r="E1241" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1241">
+        <v/>
+      </c>
+      <c r="F1241" t="str">
         <f t="shared" si="39"/>
-        <v>0.30668943075607108</v>
+        <v/>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
@@ -27814,13 +27817,13 @@
       <c r="D1245">
         <v>-5.4339598727150794E-3</v>
       </c>
-      <c r="E1245">
+      <c r="E1245" t="str">
         <f t="shared" si="38"/>
-        <v>-100</v>
-      </c>
-      <c r="F1245">
+        <v/>
+      </c>
+      <c r="F1245" t="str">
         <f t="shared" si="39"/>
-        <v>-2.101394290983865</v>
+        <v/>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
@@ -27946,13 +27949,13 @@
       <c r="D1251">
         <v>-7.1433103895272481E-3</v>
       </c>
-      <c r="E1251">
+      <c r="E1251" t="str">
         <f t="shared" si="38"/>
-        <v>-100</v>
-      </c>
-      <c r="F1251">
+        <v/>
+      </c>
+      <c r="F1251" t="str">
         <f t="shared" si="39"/>
-        <v>-3.150566896853229</v>
+        <v/>
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.25">
@@ -28056,13 +28059,13 @@
       <c r="D1256">
         <v>5.0152585007695169E-3</v>
       </c>
-      <c r="E1256">
+      <c r="E1256" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1256">
+        <v/>
+      </c>
+      <c r="F1256" t="str">
         <f t="shared" si="39"/>
-        <v>7.5869157837131924</v>
+        <v/>
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.25">
@@ -28188,13 +28191,13 @@
       <c r="D1262">
         <v>8.334690416519264E-3</v>
       </c>
-      <c r="E1262">
+      <c r="E1262" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1262">
+        <v/>
+      </c>
+      <c r="F1262" t="str">
         <f t="shared" si="39"/>
-        <v>-3.3705105006182672</v>
+        <v/>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
@@ -28342,13 +28345,13 @@
       <c r="D1269">
         <v>5.0152585007695169E-3</v>
       </c>
-      <c r="E1269">
+      <c r="E1269" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1269">
+        <v/>
+      </c>
+      <c r="F1269" t="str">
         <f t="shared" si="39"/>
-        <v>5.4100432035084287</v>
+        <v/>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
@@ -28474,13 +28477,13 @@
       <c r="D1275">
         <v>6.5019075949998926E-3</v>
       </c>
-      <c r="E1275">
+      <c r="E1275" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1275">
+        <v/>
+      </c>
+      <c r="F1275" t="str">
         <f t="shared" si="39"/>
-        <v>2.8962864622234847</v>
+        <v/>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
@@ -28496,13 +28499,13 @@
       <c r="D1276">
         <v>6.5019075949998926E-3</v>
       </c>
-      <c r="E1276">
+      <c r="E1276" t="str">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="F1276">
+        <v/>
+      </c>
+      <c r="F1276" t="str">
         <f t="shared" si="39"/>
-        <v>-2.1731678690214369</v>
+        <v/>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
@@ -28651,7 +28654,7 @@
         <v>-1.9688202991897961E-2</v>
       </c>
       <c r="E1283">
-        <f t="shared" ref="E1283:E1346" si="40">IF(ABS(D1283)&gt;0.005,SIGN(D1283)*100,"")</f>
+        <f t="shared" ref="E1283:E1346" si="40">IF(ABS(D1283)&gt;0.01,SIGN(D1283)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1283">
@@ -28716,13 +28719,13 @@
       <c r="D1286">
         <v>-8.0108354495952577E-3</v>
       </c>
-      <c r="E1286">
+      <c r="E1286" t="str">
         <f t="shared" si="40"/>
-        <v>-100</v>
-      </c>
-      <c r="F1286">
+        <v/>
+      </c>
+      <c r="F1286" t="str">
         <f t="shared" si="41"/>
-        <v>-1.052070402964338</v>
+        <v/>
       </c>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
@@ -28738,13 +28741,13 @@
       <c r="D1287">
         <v>-8.0108354495952577E-3</v>
       </c>
-      <c r="E1287">
+      <c r="E1287" t="str">
         <f t="shared" si="40"/>
-        <v>-100</v>
-      </c>
-      <c r="F1287">
+        <v/>
+      </c>
+      <c r="F1287" t="str">
         <f t="shared" si="41"/>
-        <v>3.8960190111060435</v>
+        <v/>
       </c>
     </row>
     <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
@@ -28958,13 +28961,13 @@
       <c r="D1297">
         <v>7.8634682150726005E-3</v>
       </c>
-      <c r="E1297">
+      <c r="E1297" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="F1297">
+        <v/>
+      </c>
+      <c r="F1297" t="str">
         <f t="shared" si="41"/>
-        <v>-0.55653076223234677</v>
+        <v/>
       </c>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
@@ -29068,13 +29071,13 @@
       <c r="D1302">
         <v>-6.981088597536861E-3</v>
       </c>
-      <c r="E1302">
+      <c r="E1302" t="str">
         <f t="shared" si="40"/>
-        <v>-100</v>
-      </c>
-      <c r="F1302">
+        <v/>
+      </c>
+      <c r="F1302" t="str">
         <f t="shared" si="41"/>
-        <v>-0.96009825095950863</v>
+        <v/>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
@@ -29244,13 +29247,13 @@
       <c r="D1310">
         <v>7.6954188597608674E-3</v>
       </c>
-      <c r="E1310">
+      <c r="E1310" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="F1310">
+        <v/>
+      </c>
+      <c r="F1310" t="str">
         <f t="shared" si="41"/>
-        <v>-2.3113507657483239</v>
+        <v/>
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
@@ -29486,13 +29489,13 @@
       <c r="D1321">
         <v>-5.5653076223234682E-3</v>
       </c>
-      <c r="E1321">
+      <c r="E1321" t="str">
         <f t="shared" si="40"/>
-        <v>-100</v>
-      </c>
-      <c r="F1321">
+        <v/>
+      </c>
+      <c r="F1321" t="str">
         <f t="shared" si="41"/>
-        <v>-0.61349798637507846</v>
+        <v/>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
@@ -29750,13 +29753,13 @@
       <c r="D1333">
         <v>-6.981088597536861E-3</v>
       </c>
-      <c r="E1333">
+      <c r="E1333" t="str">
         <f t="shared" si="40"/>
-        <v>-100</v>
-      </c>
-      <c r="F1333">
+        <v/>
+      </c>
+      <c r="F1333" t="str">
         <f t="shared" si="41"/>
-        <v>-1.695678213508867</v>
+        <v/>
       </c>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
@@ -29772,13 +29775,13 @@
       <c r="D1334">
         <v>6.1349798637507849E-3</v>
       </c>
-      <c r="E1334">
+      <c r="E1334" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="F1334">
+        <v/>
+      </c>
+      <c r="F1334" t="str">
         <f t="shared" si="41"/>
-        <v>-1.4189531097030801</v>
+        <v/>
       </c>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
@@ -29794,13 +29797,13 @@
       <c r="D1335">
         <v>8.0117938144330606E-3</v>
       </c>
-      <c r="E1335">
+      <c r="E1335" t="str">
         <f t="shared" si="40"/>
-        <v>100</v>
-      </c>
-      <c r="F1335">
+        <v/>
+      </c>
+      <c r="F1335" t="str">
         <f t="shared" si="41"/>
-        <v>0.44805488407698146</v>
+        <v/>
       </c>
     </row>
     <row r="1336" spans="1:6" x14ac:dyDescent="0.25">
@@ -30059,7 +30062,7 @@
         <v>-2.311350765748324E-2</v>
       </c>
       <c r="E1347">
-        <f t="shared" ref="E1347:E1410" si="42">IF(ABS(D1347)&gt;0.005,SIGN(D1347)*100,"")</f>
+        <f t="shared" ref="E1347:E1410" si="42">IF(ABS(D1347)&gt;0.01,SIGN(D1347)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1347">
@@ -30300,13 +30303,13 @@
       <c r="D1358">
         <v>8.9084143911190017E-3</v>
       </c>
-      <c r="E1358">
+      <c r="E1358" t="str">
         <f t="shared" si="42"/>
-        <v>100</v>
-      </c>
-      <c r="F1358">
+        <v/>
+      </c>
+      <c r="F1358" t="str">
         <f t="shared" si="43"/>
-        <v>-0.40608824777260072</v>
+        <v/>
       </c>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
@@ -30344,13 +30347,13 @@
       <c r="D1360">
         <v>8.9084143911190017E-3</v>
       </c>
-      <c r="E1360">
+      <c r="E1360" t="str">
         <f t="shared" si="42"/>
-        <v>100</v>
-      </c>
-      <c r="F1360">
+        <v/>
+      </c>
+      <c r="F1360" t="str">
         <f t="shared" si="43"/>
-        <v>1.2094769175875641</v>
+        <v/>
       </c>
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.25">
@@ -30388,13 +30391,13 @@
       <c r="D1362">
         <v>8.9084143911190017E-3</v>
       </c>
-      <c r="E1362">
+      <c r="E1362" t="str">
         <f t="shared" si="42"/>
-        <v>100</v>
-      </c>
-      <c r="F1362">
+        <v/>
+      </c>
+      <c r="F1362" t="str">
         <f t="shared" si="43"/>
-        <v>1.525000935750574</v>
+        <v/>
       </c>
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
@@ -30916,13 +30919,13 @@
       <c r="D1386">
         <v>-9.6131199903499564E-3</v>
       </c>
-      <c r="E1386">
+      <c r="E1386" t="str">
         <f t="shared" si="42"/>
-        <v>-100</v>
-      </c>
-      <c r="F1386">
+        <v/>
+      </c>
+      <c r="F1386" t="str">
         <f t="shared" si="43"/>
-        <v>3.2250551605288105</v>
+        <v/>
       </c>
     </row>
     <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
@@ -30960,13 +30963,13 @@
       <c r="D1388">
         <v>-5.8738910827870836E-3</v>
       </c>
-      <c r="E1388">
+      <c r="E1388" t="str">
         <f t="shared" si="42"/>
-        <v>-100</v>
-      </c>
-      <c r="F1388">
+        <v/>
+      </c>
+      <c r="F1388" t="str">
         <f t="shared" si="43"/>
-        <v>4.3832171182537509</v>
+        <v/>
       </c>
     </row>
     <row r="1389" spans="1:6" x14ac:dyDescent="0.25">
@@ -31070,13 +31073,13 @@
       <c r="D1393">
         <v>-7.5351020267860423E-3</v>
       </c>
-      <c r="E1393">
+      <c r="E1393" t="str">
         <f t="shared" si="42"/>
-        <v>-100</v>
-      </c>
-      <c r="F1393">
+        <v/>
+      </c>
+      <c r="F1393" t="str">
         <f t="shared" si="43"/>
-        <v>-1.8423539312124588</v>
+        <v/>
       </c>
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.25">
@@ -31114,13 +31117,13 @@
       <c r="D1395">
         <v>-9.6131199903499564E-3</v>
       </c>
-      <c r="E1395">
+      <c r="E1395" t="str">
         <f t="shared" si="42"/>
-        <v>-100</v>
-      </c>
-      <c r="F1395">
+        <v/>
+      </c>
+      <c r="F1395" t="str">
         <f t="shared" si="43"/>
-        <v>5.7523062714486786</v>
+        <v/>
       </c>
     </row>
     <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
@@ -31467,7 +31470,7 @@
         <v>-5.8842953923059202E-2</v>
       </c>
       <c r="E1411">
-        <f t="shared" ref="E1411:E1474" si="44">IF(ABS(D1411)&gt;0.005,SIGN(D1411)*100,"")</f>
+        <f t="shared" ref="E1411:E1474" si="44">IF(ABS(D1411)&gt;0.01,SIGN(D1411)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1411">
@@ -31730,13 +31733,13 @@
       <c r="D1423">
         <v>-8.8322789360172366E-3</v>
       </c>
-      <c r="E1423">
+      <c r="E1423" t="str">
         <f t="shared" si="44"/>
-        <v>-100</v>
-      </c>
-      <c r="F1423">
+        <v/>
+      </c>
+      <c r="F1423" t="str">
         <f t="shared" si="45"/>
-        <v>6.4034876551291333</v>
+        <v/>
       </c>
     </row>
     <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
@@ -32214,13 +32217,13 @@
       <c r="D1445">
         <v>-7.6688901135852526E-3</v>
       </c>
-      <c r="E1445">
+      <c r="E1445" t="str">
         <f t="shared" si="44"/>
-        <v>-100</v>
-      </c>
-      <c r="F1445">
+        <v/>
+      </c>
+      <c r="F1445" t="str">
         <f t="shared" si="45"/>
-        <v>-11.055046485800329</v>
+        <v/>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
@@ -32258,13 +32261,13 @@
       <c r="D1447">
         <v>-9.8190290919086057E-3</v>
       </c>
-      <c r="E1447">
+      <c r="E1447" t="str">
         <f t="shared" si="44"/>
-        <v>-100</v>
-      </c>
-      <c r="F1447">
+        <v/>
+      </c>
+      <c r="F1447" t="str">
         <f t="shared" si="45"/>
-        <v>-5.3158271065487543</v>
+        <v/>
       </c>
     </row>
     <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
@@ -32875,7 +32878,7 @@
         <v>-2.0939691852689811E-2</v>
       </c>
       <c r="E1475">
-        <f t="shared" ref="E1475:E1538" si="46">IF(ABS(D1475)&gt;0.005,SIGN(D1475)*100,"")</f>
+        <f t="shared" ref="E1475:E1538" si="46">IF(ABS(D1475)&gt;0.01,SIGN(D1475)*100,"")</f>
         <v>-100</v>
       </c>
       <c r="F1475">
@@ -32896,13 +32899,13 @@
       <c r="D1476">
         <v>-6.9976677550890806E-3</v>
       </c>
-      <c r="E1476">
+      <c r="E1476" t="str">
         <f t="shared" si="46"/>
-        <v>-100</v>
-      </c>
-      <c r="F1476">
+        <v/>
+      </c>
+      <c r="F1476" t="str">
         <f t="shared" si="47"/>
-        <v>2.950326208568308</v>
+        <v/>
       </c>
     </row>
     <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
@@ -33468,13 +33471,13 @@
       <c r="D1502">
         <v>7.0540809739523857E-3</v>
       </c>
-      <c r="E1502">
+      <c r="E1502" t="str">
         <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="F1502">
+        <v/>
+      </c>
+      <c r="F1502" t="str">
         <f t="shared" si="47"/>
-        <v>-1.767483485559717</v>
+        <v/>
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
@@ -33512,13 +33515,13 @@
       <c r="D1504">
         <v>-5.2637230523698546E-3</v>
       </c>
-      <c r="E1504">
+      <c r="E1504" t="str">
         <f t="shared" si="46"/>
-        <v>-100</v>
-      </c>
-      <c r="F1504">
+        <v/>
+      </c>
+      <c r="F1504" t="str">
         <f t="shared" si="47"/>
-        <v>-2.5167819918023282</v>
+        <v/>
       </c>
     </row>
     <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
@@ -33600,13 +33603,13 @@
       <c r="D1508">
         <v>-5.2637230523698546E-3</v>
       </c>
-      <c r="E1508">
+      <c r="E1508" t="str">
         <f t="shared" si="46"/>
-        <v>-100</v>
-      </c>
-      <c r="F1508">
+        <v/>
+      </c>
+      <c r="F1508" t="str">
         <f t="shared" si="47"/>
-        <v>4.4239160158315638</v>
+        <v/>
       </c>
     </row>
     <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
@@ -33666,13 +33669,13 @@
       <c r="D1511">
         <v>9.1919877806633313E-3</v>
       </c>
-      <c r="E1511">
+      <c r="E1511" t="str">
         <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="F1511">
+        <v/>
+      </c>
+      <c r="F1511" t="str">
         <f t="shared" si="47"/>
-        <v>1.405596504990519</v>
+        <v/>
       </c>
     </row>
     <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
@@ -33732,13 +33735,13 @@
       <c r="D1514">
         <v>9.1919877806633313E-3</v>
       </c>
-      <c r="E1514">
+      <c r="E1514" t="str">
         <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="F1514">
+        <v/>
+      </c>
+      <c r="F1514" t="str">
         <f t="shared" si="47"/>
-        <v>-4.709080824088737</v>
+        <v/>
       </c>
     </row>
     <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
@@ -33974,13 +33977,13 @@
       <c r="D1525">
         <v>6.0730432741102278E-3</v>
       </c>
-      <c r="E1525">
+      <c r="E1525" t="str">
         <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="F1525">
+        <v/>
+      </c>
+      <c r="F1525" t="str">
         <f t="shared" si="47"/>
-        <v>3.553691009187919</v>
+        <v/>
       </c>
     </row>
     <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
@@ -34283,7 +34286,7 @@
         <v>3.7096171617183771E-3</v>
       </c>
       <c r="E1539" t="str">
-        <f t="shared" ref="E1539:E1602" si="48">IF(ABS(D1539)&gt;0.005,SIGN(D1539)*100,"")</f>
+        <f t="shared" ref="E1539:E1602" si="48">IF(ABS(D1539)&gt;0.01,SIGN(D1539)*100,"")</f>
         <v/>
       </c>
       <c r="F1539" t="str">
@@ -34656,13 +34659,13 @@
       <c r="D1556">
         <v>6.3205263947747658E-3</v>
       </c>
-      <c r="E1556">
+      <c r="E1556" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1556">
+        <v/>
+      </c>
+      <c r="F1556" t="str">
         <f t="shared" si="49"/>
-        <v>-0.75001803420166302</v>
+        <v/>
       </c>
     </row>
     <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
@@ -34678,13 +34681,13 @@
       <c r="D1557">
         <v>8.994306764902895E-3</v>
       </c>
-      <c r="E1557">
+      <c r="E1557" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1557">
+        <v/>
+      </c>
+      <c r="F1557" t="str">
         <f t="shared" si="49"/>
-        <v>-2.4862035247564309</v>
+        <v/>
       </c>
     </row>
     <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
@@ -34942,13 +34945,13 @@
       <c r="D1569">
         <v>5.723522957630703E-3</v>
       </c>
-      <c r="E1569">
+      <c r="E1569" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1569">
+        <v/>
+      </c>
+      <c r="F1569" t="str">
         <f t="shared" si="49"/>
-        <v>5.6268027062103592</v>
+        <v/>
       </c>
     </row>
     <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
@@ -35008,13 +35011,13 @@
       <c r="D1572">
         <v>5.723522957630703E-3</v>
       </c>
-      <c r="E1572">
+      <c r="E1572" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1572">
+        <v/>
+      </c>
+      <c r="F1572" t="str">
         <f t="shared" si="49"/>
-        <v>0.79769183548949774</v>
+        <v/>
       </c>
     </row>
     <row r="1573" spans="1:6" x14ac:dyDescent="0.25">
@@ -35074,13 +35077,13 @@
       <c r="D1575">
         <v>7.2666736000189368E-3</v>
       </c>
-      <c r="E1575">
+      <c r="E1575" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1575">
+        <v/>
+      </c>
+      <c r="F1575" t="str">
         <f t="shared" si="49"/>
-        <v>9.2859999999994614E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1576" spans="1:6" x14ac:dyDescent="0.25">
@@ -35404,13 +35407,13 @@
       <c r="D1590">
         <v>5.723522957630703E-3</v>
       </c>
-      <c r="E1590">
+      <c r="E1590" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1590">
+        <v/>
+      </c>
+      <c r="F1590" t="str">
         <f t="shared" si="49"/>
-        <v>0.24368186960265309</v>
+        <v/>
       </c>
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.25">
@@ -35492,13 +35495,13 @@
       <c r="D1594">
         <v>-8.7894608579176352E-3</v>
       </c>
-      <c r="E1594">
+      <c r="E1594" t="str">
         <f t="shared" si="48"/>
-        <v>-100</v>
-      </c>
-      <c r="F1594">
+        <v/>
+      </c>
+      <c r="F1594" t="str">
         <f t="shared" si="49"/>
-        <v>-0.64524896492498174</v>
+        <v/>
       </c>
     </row>
     <row r="1595" spans="1:6" x14ac:dyDescent="0.25">
@@ -35514,13 +35517,13 @@
       <c r="D1595">
         <v>6.4524896492498176E-3</v>
       </c>
-      <c r="E1595">
+      <c r="E1595" t="str">
         <f t="shared" si="48"/>
-        <v>100</v>
-      </c>
-      <c r="F1595">
+        <v/>
+      </c>
+      <c r="F1595" t="str">
         <f t="shared" si="49"/>
-        <v>-1.5679414634146391</v>
+        <v/>
       </c>
     </row>
     <row r="1596" spans="1:6" x14ac:dyDescent="0.25">
@@ -35690,13 +35693,13 @@
       <c r="D1603">
         <v>-8.7894608579176352E-3</v>
       </c>
-      <c r="E1603">
-        <f t="shared" ref="E1603:E1666" si="50">IF(ABS(D1603)&gt;0.005,SIGN(D1603)*100,"")</f>
-        <v>-100</v>
-      </c>
-      <c r="F1603">
+      <c r="E1603" t="str">
+        <f t="shared" ref="E1603:E1666" si="50">IF(ABS(D1603)&gt;0.01,SIGN(D1603)*100,"")</f>
+        <v/>
+      </c>
+      <c r="F1603" t="str">
         <f t="shared" ref="F1603:F1666" si="51">IF(ISNUMBER(E1603),E1603*C1603,"")</f>
-        <v>-2.119260615117768</v>
+        <v/>
       </c>
     </row>
     <row r="1604" spans="1:6" x14ac:dyDescent="0.25">
@@ -35712,13 +35715,13 @@
       <c r="D1604">
         <v>7.9769183548949775E-3</v>
       </c>
-      <c r="E1604">
+      <c r="E1604" t="str">
         <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-      <c r="F1604">
+        <v/>
+      </c>
+      <c r="F1604" t="str">
         <f t="shared" si="51"/>
-        <v>0.49641894287735089</v>
+        <v/>
       </c>
     </row>
     <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
@@ -36152,13 +36155,13 @@
       <c r="D1624">
         <v>-6.9643780000115006E-3</v>
       </c>
-      <c r="E1624">
+      <c r="E1624" t="str">
         <f t="shared" si="50"/>
-        <v>-100</v>
-      </c>
-      <c r="F1624">
+        <v/>
+      </c>
+      <c r="F1624" t="str">
         <f t="shared" si="51"/>
-        <v>-2.522299662191315</v>
+        <v/>
       </c>
     </row>
     <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
@@ -36218,13 +36221,13 @@
       <c r="D1627">
         <v>-8.0538679666320705E-3</v>
       </c>
-      <c r="E1627">
+      <c r="E1627" t="str">
         <f t="shared" si="50"/>
-        <v>-100</v>
-      </c>
-      <c r="F1627">
+        <v/>
+      </c>
+      <c r="F1627" t="str">
         <f t="shared" si="51"/>
-        <v>1.173954128108174</v>
+        <v/>
       </c>
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.25">
@@ -36328,13 +36331,13 @@
       <c r="D1632">
         <v>-6.1341000120715868E-3</v>
       </c>
-      <c r="E1632">
+      <c r="E1632" t="str">
         <f t="shared" si="50"/>
-        <v>-100</v>
-      </c>
-      <c r="F1632">
+        <v/>
+      </c>
+      <c r="F1632" t="str">
         <f t="shared" si="51"/>
-        <v>0.38796263286914412</v>
+        <v/>
       </c>
     </row>
     <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
@@ -36482,13 +36485,13 @@
       <c r="D1639">
         <v>6.9294066695539253E-3</v>
       </c>
-      <c r="E1639">
+      <c r="E1639" t="str">
         <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-      <c r="F1639">
+        <v/>
+      </c>
+      <c r="F1639" t="str">
         <f t="shared" si="51"/>
-        <v>1.1055764724481971</v>
+        <v/>
       </c>
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
@@ -36570,13 +36573,13 @@
       <c r="D1643">
         <v>-7.3516631376091598E-3</v>
       </c>
-      <c r="E1643">
+      <c r="E1643" t="str">
         <f t="shared" si="50"/>
-        <v>-100</v>
-      </c>
-      <c r="F1643">
+        <v/>
+      </c>
+      <c r="F1643" t="str">
         <f t="shared" si="51"/>
-        <v>0.41671835571067667</v>
+        <v/>
       </c>
     </row>
     <row r="1644" spans="1:6" x14ac:dyDescent="0.25">
@@ -36812,13 +36815,13 @@
       <c r="D1654">
         <v>9.7087433625538365E-3</v>
       </c>
-      <c r="E1654">
+      <c r="E1654" t="str">
         <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-      <c r="F1654">
+        <v/>
+      </c>
+      <c r="F1654" t="str">
         <f t="shared" si="51"/>
-        <v>-2.7724337754937669</v>
+        <v/>
       </c>
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
@@ -36834,13 +36837,13 @@
       <c r="D1655">
         <v>5.0468216471592064E-3</v>
       </c>
-      <c r="E1655">
+      <c r="E1655" t="str">
         <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-      <c r="F1655">
+        <v/>
+      </c>
+      <c r="F1655" t="str">
         <f t="shared" si="51"/>
-        <v>1.0219207567399431</v>
+        <v/>
       </c>
     </row>
     <row r="1656" spans="1:6" x14ac:dyDescent="0.25">
@@ -36988,13 +36991,13 @@
       <c r="D1662">
         <v>8.2706766917292809E-3</v>
       </c>
-      <c r="E1662">
+      <c r="E1662" t="str">
         <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-      <c r="F1662">
+        <v/>
+      </c>
+      <c r="F1662" t="str">
         <f t="shared" si="51"/>
-        <v>1.075958240119308</v>
+        <v/>
       </c>
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
@@ -37099,11 +37102,11 @@
         <v>1.08483146620978E-2</v>
       </c>
       <c r="E1667">
-        <f t="shared" ref="E1667:E1721" si="52">IF(ABS(D1667)&gt;0.005,SIGN(D1667)*100,"")</f>
+        <f t="shared" ref="E1667:E1721" si="52">IF(ABS(D1667)&gt;0.01,SIGN(D1667)*100,"")</f>
         <v>100</v>
       </c>
       <c r="F1667">
-        <f t="shared" ref="F1667:F1730" si="53">IF(ISNUMBER(E1667),E1667*C1667,"")</f>
+        <f t="shared" ref="F1667:F1721" si="53">IF(ISNUMBER(E1667),E1667*C1667,"")</f>
         <v>0.84981168152868081</v>
       </c>
     </row>
@@ -37120,13 +37123,13 @@
       <c r="D1668">
         <v>-8.8639619801533561E-3</v>
       </c>
-      <c r="E1668">
+      <c r="E1668" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1668">
+        <v/>
+      </c>
+      <c r="F1668" t="str">
         <f t="shared" si="53"/>
-        <v>1.36280627731616</v>
+        <v/>
       </c>
     </row>
     <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
@@ -37252,13 +37255,13 @@
       <c r="D1674">
         <v>-8.2871067627544003E-3</v>
       </c>
-      <c r="E1674">
+      <c r="E1674" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1674">
+        <v/>
+      </c>
+      <c r="F1674" t="str">
         <f t="shared" si="53"/>
-        <v>-0.48851929891802076</v>
+        <v/>
       </c>
     </row>
     <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
@@ -37296,13 +37299,13 @@
       <c r="D1676">
         <v>8.3843967535080447E-3</v>
       </c>
-      <c r="E1676">
+      <c r="E1676" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1676">
+        <v/>
+      </c>
+      <c r="F1676" t="str">
         <f t="shared" si="53"/>
-        <v>-0.98689446195083308</v>
+        <v/>
       </c>
     </row>
     <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
@@ -37472,13 +37475,13 @@
       <c r="D1684">
         <v>8.6269669465313219E-3</v>
       </c>
-      <c r="E1684">
+      <c r="E1684" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1684">
+        <v/>
+      </c>
+      <c r="F1684" t="str">
         <f t="shared" si="53"/>
-        <v>5.7175156519492801E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
@@ -37516,13 +37519,13 @@
       <c r="D1686">
         <v>8.2706766917292809E-3</v>
       </c>
-      <c r="E1686">
+      <c r="E1686" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1686">
+        <v/>
+      </c>
+      <c r="F1686" t="str">
         <f t="shared" si="53"/>
-        <v>2.0716965083704837</v>
+        <v/>
       </c>
     </row>
     <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
@@ -37670,13 +37673,13 @@
       <c r="D1693">
         <v>8.6269669465313219E-3</v>
       </c>
-      <c r="E1693">
+      <c r="E1693" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1693">
+        <v/>
+      </c>
+      <c r="F1693" t="str">
         <f t="shared" si="53"/>
-        <v>-0.9344427320077755</v>
+        <v/>
       </c>
     </row>
     <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
@@ -37758,13 +37761,13 @@
       <c r="D1697">
         <v>-9.3444273200777549E-3</v>
       </c>
-      <c r="E1697">
+      <c r="E1697" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1697">
+        <v/>
+      </c>
+      <c r="F1697" t="str">
         <f t="shared" si="53"/>
-        <v>-3.409146268976803E-2</v>
+        <v/>
       </c>
     </row>
     <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
@@ -37846,13 +37849,13 @@
       <c r="D1701">
         <v>-9.8688257850517488E-3</v>
       </c>
-      <c r="E1701">
+      <c r="E1701" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1701">
+        <v/>
+      </c>
+      <c r="F1701" t="str">
         <f t="shared" si="53"/>
-        <v>1.6218339917293139</v>
+        <v/>
       </c>
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
@@ -37978,13 +37981,13 @@
       <c r="D1707">
         <v>-7.9218117531168961E-3</v>
       </c>
-      <c r="E1707">
+      <c r="E1707" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1707">
+        <v/>
+      </c>
+      <c r="F1707" t="str">
         <f t="shared" si="53"/>
-        <v>-4.2973662097173326</v>
+        <v/>
       </c>
     </row>
     <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
@@ -38000,13 +38003,13 @@
       <c r="D1708">
         <v>-5.3838583978871373E-3</v>
       </c>
-      <c r="E1708">
+      <c r="E1708" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1708">
+        <v/>
+      </c>
+      <c r="F1708" t="str">
         <f t="shared" si="53"/>
-        <v>0.86215438596491056</v>
+        <v/>
       </c>
     </row>
     <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
@@ -38022,13 +38025,13 @@
       <c r="D1709">
         <v>-8.621543859649106E-3</v>
       </c>
-      <c r="E1709">
+      <c r="E1709" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1709">
+        <v/>
+      </c>
+      <c r="F1709" t="str">
         <f t="shared" si="53"/>
-        <v>1.218526633445985</v>
+        <v/>
       </c>
     </row>
     <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
@@ -38044,13 +38047,13 @@
       <c r="D1710">
         <v>-8.621543859649106E-3</v>
       </c>
-      <c r="E1710">
+      <c r="E1710" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1710">
+        <v/>
+      </c>
+      <c r="F1710" t="str">
         <f t="shared" si="53"/>
-        <v>-0.2354496596202072</v>
+        <v/>
       </c>
     </row>
     <row r="1711" spans="1:6" x14ac:dyDescent="0.25">
@@ -38088,13 +38091,13 @@
       <c r="D1712">
         <v>-7.7402141522930432E-3</v>
       </c>
-      <c r="E1712">
+      <c r="E1712" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1712">
+        <v/>
+      </c>
+      <c r="F1712" t="str">
         <f t="shared" si="53"/>
-        <v>0.43054843007869259</v>
+        <v/>
       </c>
     </row>
     <row r="1713" spans="1:6" x14ac:dyDescent="0.25">
@@ -38110,13 +38113,13 @@
       <c r="D1713">
         <v>9.487034767640035E-3</v>
       </c>
-      <c r="E1713">
+      <c r="E1713" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1713">
+        <v/>
+      </c>
+      <c r="F1713" t="str">
         <f t="shared" si="53"/>
-        <v>-0.56110263727321297</v>
+        <v/>
       </c>
     </row>
     <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
@@ -38132,13 +38135,13 @@
       <c r="D1714">
         <v>-7.7402141522930432E-3</v>
       </c>
-      <c r="E1714">
+      <c r="E1714" t="str">
         <f t="shared" si="52"/>
-        <v>-100</v>
-      </c>
-      <c r="F1714">
+        <v/>
+      </c>
+      <c r="F1714" t="str">
         <f t="shared" si="53"/>
-        <v>-1.4909126290078039</v>
+        <v/>
       </c>
     </row>
     <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
@@ -38198,13 +38201,13 @@
       <c r="D1717">
         <v>8.824724404828066E-3</v>
       </c>
-      <c r="E1717">
+      <c r="E1717" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1717">
+        <v/>
+      </c>
+      <c r="F1717" t="str">
         <f t="shared" si="53"/>
-        <v>1.1679910594830549</v>
+        <v/>
       </c>
     </row>
     <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
@@ -38220,13 +38223,13 @@
       <c r="D1718">
         <v>8.824724404828066E-3</v>
       </c>
-      <c r="E1718">
+      <c r="E1718" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1718">
+        <v/>
+      </c>
+      <c r="F1718" t="str">
         <f t="shared" si="53"/>
-        <v>4.0137563843835355</v>
+        <v/>
       </c>
     </row>
     <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
@@ -38264,13 +38267,13 @@
       <c r="D1720">
         <v>8.824724404828066E-3</v>
       </c>
-      <c r="E1720">
+      <c r="E1720" t="str">
         <f t="shared" si="52"/>
-        <v>100</v>
-      </c>
-      <c r="F1720">
+        <v/>
+      </c>
+      <c r="F1720" t="str">
         <f t="shared" si="53"/>
-        <v>-1.7871382969677139</v>
+        <v/>
       </c>
     </row>
     <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
@@ -38301,7 +38304,7 @@
       </c>
       <c r="F1727">
         <f>SUM($F$2:F1721)</f>
-        <v>10.441250985395264</v>
+        <v>-45.365363842388597</v>
       </c>
     </row>
     <row r="1728" spans="1:6" x14ac:dyDescent="0.25">
@@ -38310,7 +38313,7 @@
       </c>
       <c r="F1728">
         <f>COUNT($F$2:F1721)</f>
-        <v>1420</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1729" spans="5:7" x14ac:dyDescent="0.25">
@@ -38319,7 +38322,7 @@
       </c>
       <c r="F1729">
         <f>F1728/COUNT($D$2:D1721)</f>
-        <v>0.82558139534883723</v>
+        <v>0.65116279069767447</v>
       </c>
     </row>
     <row r="1730" spans="5:7" x14ac:dyDescent="0.25">
@@ -38328,7 +38331,7 @@
       </c>
       <c r="F1730">
         <f>F1727/F1728</f>
-        <v>7.3529936516868056E-3</v>
+        <v>-4.0504789144989818E-2</v>
       </c>
     </row>
     <row r="1731" spans="5:7" x14ac:dyDescent="0.25">
@@ -38337,7 +38340,7 @@
       </c>
       <c r="F1731">
         <f>_xlfn.STDEV.S($F$2:F1721)</f>
-        <v>2.8222611412434659</v>
+        <v>2.8550107668938876</v>
       </c>
     </row>
     <row r="1732" spans="5:7" x14ac:dyDescent="0.25">
@@ -38346,11 +38349,11 @@
       </c>
       <c r="F1732">
         <f>F1727/(F1731 * SQRT(F1728))</f>
-        <v>9.8177318713343384E-2</v>
+        <v>-0.47479663970127312</v>
       </c>
       <c r="G1732">
         <f>F1730/(F1731) * SQRT(F1728)</f>
-        <v>9.8177318713343398E-2</v>
+        <v>-0.47479663970127312</v>
       </c>
     </row>
     <row r="1733" spans="5:7" x14ac:dyDescent="0.25">
